--- a/EIEx/EIEx/Données/BET EIE renseigné V1 - CI_DCE_F_PEC-411_CDPGF LOT11 ELECTRICITE CF-CFA.XLSX
+++ b/EIEx/EIEx/Données/BET EIE renseigné V1 - CI_DCE_F_PEC-411_CDPGF LOT11 ELECTRICITE CF-CFA.XLSX
@@ -15,6 +15,8 @@
     <sheet name="CDPGF LOT 11 ELECTRICITE" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'CDPGF LOT 11 ELECTRICITE'!$A$12:$L$804</definedName>
+    <definedName name="Bdro">'CDPGF LOT 11 ELECTRICITE'!$A$12:$L$804</definedName>
     <definedName name="Cfour">'CDPGF LOT 11 ELECTRICITE'!#REF!</definedName>
     <definedName name="Cmo">'CDPGF LOT 11 ELECTRICITE'!#REF!</definedName>
     <definedName name="Cst">'CDPGF LOT 11 ELECTRICITE'!#REF!</definedName>
@@ -34,9 +36,6 @@
     <t>DESIGNATION DES OUVRAGES</t>
   </si>
   <si>
-    <t>U</t>
-  </si>
-  <si>
     <t>QU</t>
   </si>
   <si>
@@ -1442,6 +1441,9 @@
   </si>
   <si>
     <t>MO/TT</t>
+  </si>
+  <si>
+    <t>Uté</t>
   </si>
 </sst>
 </file>
@@ -3478,8 +3480,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L808"/>
   <sheetViews>
-    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView showZeros="0" tabSelected="1" view="pageBreakPreview" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="70" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A545" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="H560" sqref="H560"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="15.5" outlineLevelRow="1"/>
@@ -3498,44 +3502,44 @@
     <col min="13" max="16384" width="11.453125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" hidden="1">
       <c r="I1" s="92"/>
       <c r="J1" s="93"/>
       <c r="K1" s="94"/>
       <c r="L1" s="95"/>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" hidden="1">
       <c r="I2" s="96" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="J2" s="97">
         <v>26</v>
       </c>
       <c r="K2" s="98" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="L2" s="97">
         <v>1.25</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" hidden="1">
       <c r="I3" s="96" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="J3" s="99">
         <v>1.3</v>
       </c>
       <c r="K3" s="100" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="L3" s="99">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" hidden="1">
       <c r="I4" s="96"/>
       <c r="J4" s="101" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="K4" s="101"/>
       <c r="L4" s="101">
@@ -3543,10 +3547,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" hidden="1">
       <c r="I5" s="101"/>
       <c r="J5" s="101" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="K5" s="101"/>
       <c r="L5" s="101">
@@ -3554,10 +3558,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" hidden="1">
       <c r="I6" s="101"/>
       <c r="J6" s="101" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="K6" s="101"/>
       <c r="L6" s="101">
@@ -3565,10 +3569,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" hidden="1">
       <c r="I7" s="101"/>
       <c r="J7" s="101" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="K7" s="101"/>
       <c r="L7" s="101" t="e">
@@ -3576,19 +3580,19 @@
         <v>#REF!</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" hidden="1">
       <c r="I8" s="101"/>
       <c r="J8" s="101"/>
       <c r="K8" s="101"/>
       <c r="L8" s="101"/>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" hidden="1">
       <c r="I9" s="92"/>
       <c r="J9" s="92"/>
       <c r="K9" s="92"/>
       <c r="L9" s="92"/>
     </row>
-    <row r="10" spans="1:12" ht="16" thickBot="1">
+    <row r="10" spans="1:12" ht="16" hidden="1" thickBot="1">
       <c r="I10" s="92"/>
       <c r="J10" s="92"/>
       <c r="K10" s="92"/>
@@ -3602,40 +3606,40 @@
     </row>
     <row r="12" spans="1:12" s="1" customFormat="1" ht="57.75" customHeight="1" thickBot="1">
       <c r="A12" s="47" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="48" t="s">
         <v>0</v>
       </c>
       <c r="C12" s="49" t="s">
+        <v>459</v>
+      </c>
+      <c r="D12" s="50" t="s">
         <v>1</v>
       </c>
-      <c r="D12" s="50" t="s">
-        <v>2</v>
-      </c>
       <c r="E12" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="F12" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="F12" s="52" t="s">
+      <c r="G12" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="G12" s="52" t="s">
+      <c r="H12" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="H12" s="53" t="s">
-        <v>9</v>
-      </c>
       <c r="I12" s="105" t="s">
+        <v>455</v>
+      </c>
+      <c r="J12" s="105" t="s">
         <v>456</v>
       </c>
-      <c r="J12" s="105" t="s">
+      <c r="K12" s="106" t="s">
         <v>457</v>
       </c>
-      <c r="K12" s="106" t="s">
+      <c r="L12" s="107" t="s">
         <v>458</v>
-      </c>
-      <c r="L12" s="107" t="s">
-        <v>459</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="16" thickBot="1">
@@ -3654,7 +3658,7 @@
     </row>
     <row r="14" spans="1:12" ht="82.5" customHeight="1" thickBot="1">
       <c r="A14" s="117" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B14" s="118"/>
       <c r="C14" s="118"/>
@@ -3687,7 +3691,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C16" s="60"/>
       <c r="D16" s="61"/>
@@ -3716,10 +3720,10 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="65" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="26"/>
       <c r="D18" s="27"/>
@@ -3749,10 +3753,10 @@
     <row r="20" spans="1:12" outlineLevel="1">
       <c r="A20" s="54"/>
       <c r="B20" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D20" s="27"/>
       <c r="E20" s="113" t="str">
@@ -3804,10 +3808,10 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="65" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C22" s="26"/>
       <c r="D22" s="27"/>
@@ -3861,10 +3865,10 @@
     <row r="24" spans="1:12" outlineLevel="1">
       <c r="A24" s="54"/>
       <c r="B24" s="25" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C24" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D24" s="27"/>
       <c r="E24" s="113" t="str">
@@ -3933,7 +3937,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="59" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" s="68"/>
       <c r="D27" s="69"/>
@@ -3962,10 +3966,10 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="B29" s="70" t="s">
         <v>16</v>
-      </c>
-      <c r="B29" s="70" t="s">
-        <v>17</v>
       </c>
       <c r="C29" s="26"/>
       <c r="D29" s="27"/>
@@ -4019,10 +4023,10 @@
     <row r="31" spans="1:12" outlineLevel="1">
       <c r="A31" s="54"/>
       <c r="B31" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" s="27"/>
       <c r="E31" s="113" t="str">
@@ -4049,10 +4053,10 @@
     <row r="32" spans="1:12" outlineLevel="1">
       <c r="A32" s="54"/>
       <c r="B32" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C32" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D32" s="27"/>
       <c r="E32" s="113" t="str">
@@ -4079,10 +4083,10 @@
     <row r="33" spans="1:12" ht="31" outlineLevel="1">
       <c r="A33" s="54"/>
       <c r="B33" s="25" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C33" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D33" s="27"/>
       <c r="E33" s="113" t="str">
@@ -4109,10 +4113,10 @@
     <row r="34" spans="1:12" outlineLevel="1">
       <c r="A34" s="54"/>
       <c r="B34" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C34" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D34" s="27"/>
       <c r="E34" s="113" t="str">
@@ -4139,10 +4143,10 @@
     <row r="35" spans="1:12" outlineLevel="1">
       <c r="A35" s="54"/>
       <c r="B35" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C35" s="26" t="s">
         <v>25</v>
-      </c>
-      <c r="C35" s="26" t="s">
-        <v>26</v>
       </c>
       <c r="D35" s="27"/>
       <c r="E35" s="113" t="str">
@@ -4194,10 +4198,10 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="54" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B37" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37" s="26"/>
       <c r="D37" s="27"/>
@@ -4251,10 +4255,10 @@
     <row r="39" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A39" s="54"/>
       <c r="B39" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C39" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" s="27"/>
       <c r="E39" s="113" t="str">
@@ -4281,10 +4285,10 @@
     <row r="40" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A40" s="54"/>
       <c r="B40" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C40" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D40" s="27"/>
       <c r="E40" s="113" t="str">
@@ -4311,10 +4315,10 @@
     <row r="41" spans="1:12" ht="33" customHeight="1" outlineLevel="1">
       <c r="A41" s="54"/>
       <c r="B41" s="25" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C41" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D41" s="27"/>
       <c r="E41" s="113" t="str">
@@ -4341,10 +4345,10 @@
     <row r="42" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A42" s="54"/>
       <c r="B42" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C42" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D42" s="27"/>
       <c r="E42" s="113" t="str">
@@ -4371,10 +4375,10 @@
     <row r="43" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A43" s="54"/>
       <c r="B43" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C43" s="26" t="s">
         <v>25</v>
-      </c>
-      <c r="C43" s="26" t="s">
-        <v>26</v>
       </c>
       <c r="D43" s="27"/>
       <c r="E43" s="113" t="str">
@@ -4426,10 +4430,10 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="54" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B45" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C45" s="26"/>
       <c r="D45" s="27"/>
@@ -4483,10 +4487,10 @@
     <row r="47" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A47" s="54"/>
       <c r="B47" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C47" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D47" s="27"/>
       <c r="E47" s="113" t="str">
@@ -4513,10 +4517,10 @@
     <row r="48" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A48" s="54"/>
       <c r="B48" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C48" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D48" s="27"/>
       <c r="E48" s="113" t="str">
@@ -4543,10 +4547,10 @@
     <row r="49" spans="1:12" ht="33" customHeight="1" outlineLevel="1">
       <c r="A49" s="54"/>
       <c r="B49" s="25" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C49" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D49" s="27"/>
       <c r="E49" s="113" t="str">
@@ -4573,10 +4577,10 @@
     <row r="50" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A50" s="54"/>
       <c r="B50" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C50" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D50" s="27"/>
       <c r="E50" s="113" t="str">
@@ -4603,10 +4607,10 @@
     <row r="51" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A51" s="54"/>
       <c r="B51" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C51" s="26" t="s">
         <v>25</v>
-      </c>
-      <c r="C51" s="26" t="s">
-        <v>26</v>
       </c>
       <c r="D51" s="27"/>
       <c r="E51" s="113" t="str">
@@ -4658,10 +4662,10 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="54" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B53" s="72" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C53" s="26"/>
       <c r="D53" s="27"/>
@@ -4715,10 +4719,10 @@
     <row r="55" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A55" s="54"/>
       <c r="B55" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C55" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D55" s="27"/>
       <c r="E55" s="113" t="str">
@@ -4745,10 +4749,10 @@
     <row r="56" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A56" s="54"/>
       <c r="B56" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C56" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D56" s="27"/>
       <c r="E56" s="113" t="str">
@@ -4775,10 +4779,10 @@
     <row r="57" spans="1:12" ht="33" customHeight="1" outlineLevel="1">
       <c r="A57" s="54"/>
       <c r="B57" s="25" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C57" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D57" s="27"/>
       <c r="E57" s="113" t="str">
@@ -4805,10 +4809,10 @@
     <row r="58" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A58" s="54"/>
       <c r="B58" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C58" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D58" s="27"/>
       <c r="E58" s="113" t="str">
@@ -4835,10 +4839,10 @@
     <row r="59" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A59" s="54"/>
       <c r="B59" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C59" s="26" t="s">
         <v>25</v>
-      </c>
-      <c r="C59" s="26" t="s">
-        <v>26</v>
       </c>
       <c r="D59" s="27"/>
       <c r="E59" s="113" t="str">
@@ -4890,10 +4894,10 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="54" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B61" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C61" s="26"/>
       <c r="D61" s="27"/>
@@ -4947,10 +4951,10 @@
     <row r="63" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A63" s="54"/>
       <c r="B63" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C63" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" s="27"/>
       <c r="E63" s="113" t="str">
@@ -4977,10 +4981,10 @@
     <row r="64" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A64" s="54"/>
       <c r="B64" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C64" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D64" s="27"/>
       <c r="E64" s="113" t="str">
@@ -5007,10 +5011,10 @@
     <row r="65" spans="1:12" ht="33" customHeight="1" outlineLevel="1">
       <c r="A65" s="54"/>
       <c r="B65" s="25" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C65" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D65" s="27"/>
       <c r="E65" s="113" t="str">
@@ -5037,10 +5041,10 @@
     <row r="66" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A66" s="54"/>
       <c r="B66" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C66" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D66" s="27"/>
       <c r="E66" s="113" t="str">
@@ -5067,10 +5071,10 @@
     <row r="67" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A67" s="54"/>
       <c r="B67" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C67" s="26" t="s">
         <v>25</v>
-      </c>
-      <c r="C67" s="26" t="s">
-        <v>26</v>
       </c>
       <c r="D67" s="27"/>
       <c r="E67" s="113" t="str">
@@ -5123,10 +5127,10 @@
     <row r="69" spans="1:12" ht="31" outlineLevel="1">
       <c r="A69" s="54"/>
       <c r="B69" s="8" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C69" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D69" s="27"/>
       <c r="E69" s="113" t="str">
@@ -5195,7 +5199,7 @@
         <v>3</v>
       </c>
       <c r="B72" s="59" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C72" s="68"/>
       <c r="D72" s="69"/>
@@ -5224,10 +5228,10 @@
     </row>
     <row r="74" spans="1:12">
       <c r="A74" s="54" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B74" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C74" s="26"/>
       <c r="D74" s="27"/>
@@ -5281,10 +5285,10 @@
     <row r="76" spans="1:12" outlineLevel="1">
       <c r="A76" s="54"/>
       <c r="B76" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C76" s="46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D76" s="27"/>
       <c r="E76" s="113" t="str">
@@ -5311,10 +5315,10 @@
     <row r="77" spans="1:12" outlineLevel="1">
       <c r="A77" s="54"/>
       <c r="B77" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C77" s="46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" s="27"/>
       <c r="E77" s="113" t="str">
@@ -5341,10 +5345,10 @@
     <row r="78" spans="1:12" outlineLevel="1">
       <c r="A78" s="54"/>
       <c r="B78" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C78" s="46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" s="27"/>
       <c r="E78" s="113" t="str">
@@ -5371,10 +5375,10 @@
     <row r="79" spans="1:12" outlineLevel="1">
       <c r="A79" s="54"/>
       <c r="B79" s="22" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C79" s="46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" s="27"/>
       <c r="E79" s="113" t="str">
@@ -5401,10 +5405,10 @@
     <row r="80" spans="1:12" outlineLevel="1">
       <c r="A80" s="54"/>
       <c r="B80" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C80" s="46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" s="27"/>
       <c r="E80" s="113" t="str">
@@ -5431,10 +5435,10 @@
     <row r="81" spans="1:12" outlineLevel="1">
       <c r="A81" s="54"/>
       <c r="B81" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C81" s="46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D81" s="27"/>
       <c r="E81" s="113" t="str">
@@ -5461,10 +5465,10 @@
     <row r="82" spans="1:12" outlineLevel="1">
       <c r="A82" s="54"/>
       <c r="B82" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C82" s="46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D82" s="27"/>
       <c r="E82" s="113" t="str">
@@ -5491,10 +5495,10 @@
     <row r="83" spans="1:12" outlineLevel="1">
       <c r="A83" s="54"/>
       <c r="B83" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C83" s="46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D83" s="27"/>
       <c r="E83" s="113" t="str">
@@ -5521,10 +5525,10 @@
     <row r="84" spans="1:12" outlineLevel="1">
       <c r="A84" s="54"/>
       <c r="B84" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C84" s="46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D84" s="27"/>
       <c r="E84" s="113" t="str">
@@ -5551,10 +5555,10 @@
     <row r="85" spans="1:12" outlineLevel="1">
       <c r="A85" s="54"/>
       <c r="B85" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C85" s="46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" s="27"/>
       <c r="E85" s="113" t="str">
@@ -5581,10 +5585,10 @@
     <row r="86" spans="1:12" outlineLevel="1">
       <c r="A86" s="54"/>
       <c r="B86" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C86" s="46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" s="27"/>
       <c r="E86" s="113" t="str">
@@ -5611,10 +5615,10 @@
     <row r="87" spans="1:12" outlineLevel="1">
       <c r="A87" s="54"/>
       <c r="B87" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C87" s="46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D87" s="27"/>
       <c r="E87" s="113" t="str">
@@ -5641,10 +5645,10 @@
     <row r="88" spans="1:12" outlineLevel="1">
       <c r="A88" s="54"/>
       <c r="B88" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C88" s="46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D88" s="27"/>
       <c r="E88" s="113" t="str">
@@ -5671,10 +5675,10 @@
     <row r="89" spans="1:12" outlineLevel="1">
       <c r="A89" s="54"/>
       <c r="B89" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C89" s="46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" s="27"/>
       <c r="E89" s="113" t="str">
@@ -5701,10 +5705,10 @@
     <row r="90" spans="1:12" outlineLevel="1">
       <c r="A90" s="54"/>
       <c r="B90" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C90" s="46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D90" s="27"/>
       <c r="E90" s="113" t="str">
@@ -5731,10 +5735,10 @@
     <row r="91" spans="1:12" outlineLevel="1">
       <c r="A91" s="54"/>
       <c r="B91" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C91" s="46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" s="27"/>
       <c r="E91" s="113" t="str">
@@ -5761,10 +5765,10 @@
     <row r="92" spans="1:12" outlineLevel="1">
       <c r="A92" s="54"/>
       <c r="B92" s="22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C92" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D92" s="27"/>
       <c r="E92" s="113" t="str">
@@ -5816,10 +5820,10 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="54" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B94" s="21" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C94" s="26"/>
       <c r="D94" s="27"/>
@@ -5873,10 +5877,10 @@
     <row r="96" spans="1:12" outlineLevel="1">
       <c r="A96" s="54"/>
       <c r="B96" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C96" s="46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D96" s="27"/>
       <c r="E96" s="113" t="str">
@@ -5903,10 +5907,10 @@
     <row r="97" spans="1:12" outlineLevel="1">
       <c r="A97" s="54"/>
       <c r="B97" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C97" s="46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D97" s="27"/>
       <c r="E97" s="113" t="str">
@@ -5933,10 +5937,10 @@
     <row r="98" spans="1:12" outlineLevel="1">
       <c r="A98" s="54"/>
       <c r="B98" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C98" s="46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" s="27"/>
       <c r="E98" s="113" t="str">
@@ -5963,10 +5967,10 @@
     <row r="99" spans="1:12" outlineLevel="1">
       <c r="A99" s="54"/>
       <c r="B99" s="22" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C99" s="46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D99" s="27"/>
       <c r="E99" s="113" t="str">
@@ -5993,10 +5997,10 @@
     <row r="100" spans="1:12" outlineLevel="1">
       <c r="A100" s="54"/>
       <c r="B100" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C100" s="46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D100" s="27"/>
       <c r="E100" s="113" t="str">
@@ -6023,10 +6027,10 @@
     <row r="101" spans="1:12" outlineLevel="1">
       <c r="A101" s="54"/>
       <c r="B101" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C101" s="46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" s="27"/>
       <c r="E101" s="113" t="str">
@@ -6053,10 +6057,10 @@
     <row r="102" spans="1:12" outlineLevel="1">
       <c r="A102" s="54"/>
       <c r="B102" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C102" s="46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D102" s="27"/>
       <c r="E102" s="113" t="str">
@@ -6083,10 +6087,10 @@
     <row r="103" spans="1:12" outlineLevel="1">
       <c r="A103" s="54"/>
       <c r="B103" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C103" s="46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D103" s="27"/>
       <c r="E103" s="113" t="str">
@@ -6113,10 +6117,10 @@
     <row r="104" spans="1:12" outlineLevel="1">
       <c r="A104" s="54"/>
       <c r="B104" s="22" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C104" s="46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D104" s="27"/>
       <c r="E104" s="113" t="str">
@@ -6143,10 +6147,10 @@
     <row r="105" spans="1:12" outlineLevel="1">
       <c r="A105" s="54"/>
       <c r="B105" s="22" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C105" s="46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D105" s="27"/>
       <c r="E105" s="113" t="str">
@@ -6173,10 +6177,10 @@
     <row r="106" spans="1:12" outlineLevel="1">
       <c r="A106" s="54"/>
       <c r="B106" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C106" s="46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D106" s="27"/>
       <c r="E106" s="113" t="str">
@@ -6203,10 +6207,10 @@
     <row r="107" spans="1:12" outlineLevel="1">
       <c r="A107" s="54"/>
       <c r="B107" s="22" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C107" s="46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D107" s="27"/>
       <c r="E107" s="113" t="str">
@@ -6233,10 +6237,10 @@
     <row r="108" spans="1:12" outlineLevel="1">
       <c r="A108" s="54"/>
       <c r="B108" s="22" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C108" s="46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D108" s="27"/>
       <c r="E108" s="113" t="str">
@@ -6263,10 +6267,10 @@
     <row r="109" spans="1:12" outlineLevel="1">
       <c r="A109" s="54"/>
       <c r="B109" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C109" s="46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D109" s="27"/>
       <c r="E109" s="113" t="str">
@@ -6293,10 +6297,10 @@
     <row r="110" spans="1:12" outlineLevel="1">
       <c r="A110" s="54"/>
       <c r="B110" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C110" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D110" s="27"/>
       <c r="E110" s="113" t="str">
@@ -6348,10 +6352,10 @@
     </row>
     <row r="112" spans="1:12">
       <c r="A112" s="65" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B112" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C112" s="26"/>
       <c r="D112" s="27"/>
@@ -6405,10 +6409,10 @@
     <row r="114" spans="1:12" ht="21.75" customHeight="1" outlineLevel="1">
       <c r="A114" s="54"/>
       <c r="B114" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C114" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D114" s="27"/>
       <c r="E114" s="113" t="str">
@@ -6435,10 +6439,10 @@
     <row r="115" spans="1:12" outlineLevel="1">
       <c r="A115" s="54"/>
       <c r="B115" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C115" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D115" s="27"/>
       <c r="E115" s="113" t="str">
@@ -6465,10 +6469,10 @@
     <row r="116" spans="1:12" outlineLevel="1">
       <c r="A116" s="54"/>
       <c r="B116" s="8" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C116" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D116" s="27"/>
       <c r="E116" s="113" t="str">
@@ -6495,10 +6499,10 @@
     <row r="117" spans="1:12" outlineLevel="1">
       <c r="A117" s="54"/>
       <c r="B117" s="8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C117" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D117" s="27"/>
       <c r="E117" s="113" t="str">
@@ -6525,10 +6529,10 @@
     <row r="118" spans="1:12" outlineLevel="1">
       <c r="A118" s="54"/>
       <c r="B118" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C118" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D118" s="27"/>
       <c r="E118" s="113" t="str">
@@ -6555,10 +6559,10 @@
     <row r="119" spans="1:12" outlineLevel="1">
       <c r="A119" s="54"/>
       <c r="B119" s="8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C119" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D119" s="27"/>
       <c r="E119" s="113" t="str">
@@ -6585,10 +6589,10 @@
     <row r="120" spans="1:12" outlineLevel="1">
       <c r="A120" s="54"/>
       <c r="B120" s="22" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C120" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D120" s="27"/>
       <c r="E120" s="113" t="str">
@@ -6615,10 +6619,10 @@
     <row r="121" spans="1:12" outlineLevel="1">
       <c r="A121" s="54"/>
       <c r="B121" s="8" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C121" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D121" s="27"/>
       <c r="E121" s="113" t="str">
@@ -6645,10 +6649,10 @@
     <row r="122" spans="1:12" outlineLevel="1">
       <c r="A122" s="54"/>
       <c r="B122" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C122" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D122" s="27"/>
       <c r="E122" s="113" t="str">
@@ -6675,10 +6679,10 @@
     <row r="123" spans="1:12" outlineLevel="1">
       <c r="A123" s="54"/>
       <c r="B123" s="8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C123" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D123" s="27"/>
       <c r="E123" s="113" t="str">
@@ -6705,10 +6709,10 @@
     <row r="124" spans="1:12" outlineLevel="1">
       <c r="A124" s="54"/>
       <c r="B124" s="8" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C124" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D124" s="27"/>
       <c r="E124" s="113" t="str">
@@ -6760,10 +6764,10 @@
     </row>
     <row r="126" spans="1:12">
       <c r="A126" s="54" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B126" s="76" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C126" s="26"/>
       <c r="D126" s="27"/>
@@ -6817,10 +6821,10 @@
     <row r="128" spans="1:12" outlineLevel="1">
       <c r="A128" s="54"/>
       <c r="B128" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C128" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D128" s="27"/>
       <c r="E128" s="113" t="str">
@@ -6847,10 +6851,10 @@
     <row r="129" spans="1:12" outlineLevel="1">
       <c r="A129" s="54"/>
       <c r="B129" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C129" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D129" s="27"/>
       <c r="E129" s="113" t="str">
@@ -6877,10 +6881,10 @@
     <row r="130" spans="1:12" outlineLevel="1">
       <c r="A130" s="54"/>
       <c r="B130" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C130" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D130" s="27"/>
       <c r="E130" s="113" t="str">
@@ -6907,10 +6911,10 @@
     <row r="131" spans="1:12" outlineLevel="1">
       <c r="A131" s="54"/>
       <c r="B131" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C131" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D131" s="27"/>
       <c r="E131" s="113" t="str">
@@ -6937,10 +6941,10 @@
     <row r="132" spans="1:12" outlineLevel="1">
       <c r="A132" s="54"/>
       <c r="B132" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C132" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D132" s="27"/>
       <c r="E132" s="113" t="str">
@@ -6967,10 +6971,10 @@
     <row r="133" spans="1:12" outlineLevel="1">
       <c r="A133" s="54"/>
       <c r="B133" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C133" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D133" s="27"/>
       <c r="E133" s="113" t="str">
@@ -6997,10 +7001,10 @@
     <row r="134" spans="1:12" outlineLevel="1">
       <c r="A134" s="54"/>
       <c r="B134" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C134" s="26" t="s">
         <v>25</v>
-      </c>
-      <c r="C134" s="26" t="s">
-        <v>26</v>
       </c>
       <c r="D134" s="27"/>
       <c r="E134" s="113" t="str">
@@ -7052,10 +7056,10 @@
     </row>
     <row r="136" spans="1:12">
       <c r="A136" s="54" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B136" s="76" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C136" s="26"/>
       <c r="D136" s="27"/>
@@ -7109,10 +7113,10 @@
     <row r="138" spans="1:12" outlineLevel="1">
       <c r="A138" s="54"/>
       <c r="B138" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C138" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D138" s="27"/>
       <c r="E138" s="113" t="str">
@@ -7139,10 +7143,10 @@
     <row r="139" spans="1:12" outlineLevel="1">
       <c r="A139" s="54"/>
       <c r="B139" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C139" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D139" s="27"/>
       <c r="E139" s="113" t="str">
@@ -7169,10 +7173,10 @@
     <row r="140" spans="1:12" outlineLevel="1">
       <c r="A140" s="54"/>
       <c r="B140" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C140" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D140" s="27"/>
       <c r="E140" s="113" t="str">
@@ -7199,10 +7203,10 @@
     <row r="141" spans="1:12" outlineLevel="1">
       <c r="A141" s="54"/>
       <c r="B141" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C141" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D141" s="27"/>
       <c r="E141" s="113" t="str">
@@ -7229,10 +7233,10 @@
     <row r="142" spans="1:12" outlineLevel="1">
       <c r="A142" s="54"/>
       <c r="B142" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C142" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D142" s="27"/>
       <c r="E142" s="113" t="str">
@@ -7259,10 +7263,10 @@
     <row r="143" spans="1:12" outlineLevel="1">
       <c r="A143" s="54"/>
       <c r="B143" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C143" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D143" s="27"/>
       <c r="E143" s="113" t="str">
@@ -7314,10 +7318,10 @@
     </row>
     <row r="145" spans="1:12">
       <c r="A145" s="54" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B145" s="76" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C145" s="26"/>
       <c r="D145" s="27"/>
@@ -7371,10 +7375,10 @@
     <row r="147" spans="1:12" outlineLevel="1">
       <c r="A147" s="54"/>
       <c r="B147" s="8" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="C147" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D147" s="27"/>
       <c r="E147" s="113" t="str">
@@ -7401,10 +7405,10 @@
     <row r="148" spans="1:12" outlineLevel="1">
       <c r="A148" s="54"/>
       <c r="B148" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C148" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D148" s="27"/>
       <c r="E148" s="113" t="str">
@@ -7431,10 +7435,10 @@
     <row r="149" spans="1:12" outlineLevel="1">
       <c r="A149" s="54"/>
       <c r="B149" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C149" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D149" s="27"/>
       <c r="E149" s="113" t="str">
@@ -7461,10 +7465,10 @@
     <row r="150" spans="1:12" outlineLevel="1">
       <c r="A150" s="54"/>
       <c r="B150" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C150" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D150" s="27"/>
       <c r="E150" s="113" t="str">
@@ -7491,10 +7495,10 @@
     <row r="151" spans="1:12" outlineLevel="1">
       <c r="A151" s="54"/>
       <c r="B151" s="8" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C151" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D151" s="27"/>
       <c r="E151" s="113" t="str">
@@ -7546,10 +7550,10 @@
     </row>
     <row r="153" spans="1:12">
       <c r="A153" s="54" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B153" s="76" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C153" s="26"/>
       <c r="D153" s="27"/>
@@ -7603,10 +7607,10 @@
     <row r="155" spans="1:12" outlineLevel="1">
       <c r="A155" s="54"/>
       <c r="B155" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C155" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D155" s="27"/>
       <c r="E155" s="113" t="str">
@@ -7633,10 +7637,10 @@
     <row r="156" spans="1:12" outlineLevel="1">
       <c r="A156" s="54"/>
       <c r="B156" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C156" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D156" s="27"/>
       <c r="E156" s="113" t="str">
@@ -7663,10 +7667,10 @@
     <row r="157" spans="1:12" outlineLevel="1">
       <c r="A157" s="54"/>
       <c r="B157" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C157" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D157" s="27"/>
       <c r="E157" s="113" t="str">
@@ -7693,10 +7697,10 @@
     <row r="158" spans="1:12" outlineLevel="1">
       <c r="A158" s="54"/>
       <c r="B158" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C158" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D158" s="27"/>
       <c r="E158" s="113" t="str">
@@ -7723,10 +7727,10 @@
     <row r="159" spans="1:12" outlineLevel="1">
       <c r="A159" s="54"/>
       <c r="B159" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C159" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D159" s="27"/>
       <c r="E159" s="113" t="str">
@@ -7753,10 +7757,10 @@
     <row r="160" spans="1:12" outlineLevel="1">
       <c r="A160" s="54"/>
       <c r="B160" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C160" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D160" s="27"/>
       <c r="E160" s="113" t="str">
@@ -7783,10 +7787,10 @@
     <row r="161" spans="1:12" outlineLevel="1">
       <c r="A161" s="54"/>
       <c r="B161" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C161" s="26" t="s">
         <v>25</v>
-      </c>
-      <c r="C161" s="26" t="s">
-        <v>26</v>
       </c>
       <c r="D161" s="27"/>
       <c r="E161" s="113" t="str">
@@ -7838,10 +7842,10 @@
     </row>
     <row r="163" spans="1:12">
       <c r="A163" s="54" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B163" s="76" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C163" s="26"/>
       <c r="D163" s="27"/>
@@ -7895,10 +7899,10 @@
     <row r="165" spans="1:12" outlineLevel="1">
       <c r="A165" s="54"/>
       <c r="B165" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C165" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D165" s="27"/>
       <c r="E165" s="113" t="str">
@@ -7925,10 +7929,10 @@
     <row r="166" spans="1:12" outlineLevel="1">
       <c r="A166" s="54"/>
       <c r="B166" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C166" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D166" s="27"/>
       <c r="E166" s="113" t="str">
@@ -7955,10 +7959,10 @@
     <row r="167" spans="1:12" outlineLevel="1">
       <c r="A167" s="54"/>
       <c r="B167" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C167" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D167" s="27"/>
       <c r="E167" s="113" t="str">
@@ -7985,10 +7989,10 @@
     <row r="168" spans="1:12" outlineLevel="1">
       <c r="A168" s="54"/>
       <c r="B168" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C168" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D168" s="27"/>
       <c r="E168" s="113" t="str">
@@ -8015,10 +8019,10 @@
     <row r="169" spans="1:12" outlineLevel="1">
       <c r="A169" s="54"/>
       <c r="B169" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C169" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D169" s="27"/>
       <c r="E169" s="113" t="str">
@@ -8045,10 +8049,10 @@
     <row r="170" spans="1:12" outlineLevel="1">
       <c r="A170" s="54"/>
       <c r="B170" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C170" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D170" s="27"/>
       <c r="E170" s="113" t="str">
@@ -8100,10 +8104,10 @@
     </row>
     <row r="172" spans="1:12">
       <c r="A172" s="54" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B172" s="76" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C172" s="26"/>
       <c r="D172" s="27"/>
@@ -8157,10 +8161,10 @@
     <row r="174" spans="1:12" outlineLevel="1">
       <c r="A174" s="54"/>
       <c r="B174" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C174" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D174" s="27"/>
       <c r="E174" s="113" t="str">
@@ -8187,10 +8191,10 @@
     <row r="175" spans="1:12" outlineLevel="1">
       <c r="A175" s="54"/>
       <c r="B175" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C175" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D175" s="27"/>
       <c r="E175" s="113" t="str">
@@ -8217,10 +8221,10 @@
     <row r="176" spans="1:12" outlineLevel="1">
       <c r="A176" s="54"/>
       <c r="B176" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C176" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D176" s="27"/>
       <c r="E176" s="113" t="str">
@@ -8247,10 +8251,10 @@
     <row r="177" spans="1:12" outlineLevel="1">
       <c r="A177" s="54"/>
       <c r="B177" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C177" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D177" s="27"/>
       <c r="E177" s="113" t="str">
@@ -8277,10 +8281,10 @@
     <row r="178" spans="1:12" outlineLevel="1">
       <c r="A178" s="54"/>
       <c r="B178" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C178" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D178" s="27"/>
       <c r="E178" s="113" t="str">
@@ -8307,10 +8311,10 @@
     <row r="179" spans="1:12" outlineLevel="1">
       <c r="A179" s="54"/>
       <c r="B179" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C179" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D179" s="27"/>
       <c r="E179" s="113" t="str">
@@ -8362,10 +8366,10 @@
     </row>
     <row r="181" spans="1:12">
       <c r="A181" s="54" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B181" s="76" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C181" s="26"/>
       <c r="D181" s="27"/>
@@ -8419,10 +8423,10 @@
     <row r="183" spans="1:12" outlineLevel="1">
       <c r="A183" s="54"/>
       <c r="B183" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C183" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D183" s="27"/>
       <c r="E183" s="113" t="str">
@@ -8449,10 +8453,10 @@
     <row r="184" spans="1:12" outlineLevel="1">
       <c r="A184" s="54"/>
       <c r="B184" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C184" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D184" s="27"/>
       <c r="E184" s="113" t="str">
@@ -8479,10 +8483,10 @@
     <row r="185" spans="1:12" outlineLevel="1">
       <c r="A185" s="54"/>
       <c r="B185" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C185" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D185" s="27"/>
       <c r="E185" s="113" t="str">
@@ -8509,10 +8513,10 @@
     <row r="186" spans="1:12" outlineLevel="1">
       <c r="A186" s="54"/>
       <c r="B186" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C186" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D186" s="27"/>
       <c r="E186" s="113" t="str">
@@ -8539,10 +8543,10 @@
     <row r="187" spans="1:12" outlineLevel="1">
       <c r="A187" s="54"/>
       <c r="B187" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C187" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D187" s="27"/>
       <c r="E187" s="113" t="str">
@@ -8569,10 +8573,10 @@
     <row r="188" spans="1:12" outlineLevel="1">
       <c r="A188" s="54"/>
       <c r="B188" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C188" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D188" s="27"/>
       <c r="E188" s="113" t="str">
@@ -8624,10 +8628,10 @@
     </row>
     <row r="190" spans="1:12">
       <c r="A190" s="54" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B190" s="76" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C190" s="26"/>
       <c r="D190" s="27"/>
@@ -8681,10 +8685,10 @@
     <row r="192" spans="1:12" outlineLevel="1">
       <c r="A192" s="54"/>
       <c r="B192" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C192" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D192" s="27"/>
       <c r="E192" s="113" t="str">
@@ -8711,10 +8715,10 @@
     <row r="193" spans="1:12" outlineLevel="1">
       <c r="A193" s="54"/>
       <c r="B193" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C193" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D193" s="27"/>
       <c r="E193" s="113" t="str">
@@ -8741,10 +8745,10 @@
     <row r="194" spans="1:12" outlineLevel="1">
       <c r="A194" s="54"/>
       <c r="B194" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C194" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D194" s="27"/>
       <c r="E194" s="113" t="str">
@@ -8771,10 +8775,10 @@
     <row r="195" spans="1:12" outlineLevel="1">
       <c r="A195" s="54"/>
       <c r="B195" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C195" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D195" s="27"/>
       <c r="E195" s="113" t="str">
@@ -8801,10 +8805,10 @@
     <row r="196" spans="1:12" outlineLevel="1">
       <c r="A196" s="54"/>
       <c r="B196" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C196" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D196" s="27"/>
       <c r="E196" s="113" t="str">
@@ -8831,10 +8835,10 @@
     <row r="197" spans="1:12" outlineLevel="1">
       <c r="A197" s="54"/>
       <c r="B197" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C197" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D197" s="27"/>
       <c r="E197" s="113" t="str">
@@ -8861,10 +8865,10 @@
     <row r="198" spans="1:12" outlineLevel="1">
       <c r="A198" s="54"/>
       <c r="B198" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C198" s="26" t="s">
         <v>25</v>
-      </c>
-      <c r="C198" s="26" t="s">
-        <v>26</v>
       </c>
       <c r="D198" s="27"/>
       <c r="E198" s="113" t="str">
@@ -8916,10 +8920,10 @@
     </row>
     <row r="200" spans="1:12">
       <c r="A200" s="54" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B200" s="76" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C200" s="26"/>
       <c r="D200" s="27"/>
@@ -8973,10 +8977,10 @@
     <row r="202" spans="1:12" outlineLevel="1">
       <c r="A202" s="54"/>
       <c r="B202" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C202" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D202" s="27"/>
       <c r="E202" s="113" t="str">
@@ -9003,10 +9007,10 @@
     <row r="203" spans="1:12" outlineLevel="1">
       <c r="A203" s="54"/>
       <c r="B203" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C203" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D203" s="27"/>
       <c r="E203" s="113" t="str">
@@ -9033,10 +9037,10 @@
     <row r="204" spans="1:12" outlineLevel="1">
       <c r="A204" s="54"/>
       <c r="B204" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C204" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D204" s="27"/>
       <c r="E204" s="113" t="str">
@@ -9063,10 +9067,10 @@
     <row r="205" spans="1:12" outlineLevel="1">
       <c r="A205" s="54"/>
       <c r="B205" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C205" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D205" s="27"/>
       <c r="E205" s="113" t="str">
@@ -9093,10 +9097,10 @@
     <row r="206" spans="1:12" outlineLevel="1">
       <c r="A206" s="54"/>
       <c r="B206" s="8" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="C206" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D206" s="27"/>
       <c r="E206" s="113" t="str">
@@ -9123,10 +9127,10 @@
     <row r="207" spans="1:12" outlineLevel="1">
       <c r="A207" s="54"/>
       <c r="B207" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C207" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D207" s="27"/>
       <c r="E207" s="113" t="str">
@@ -9178,10 +9182,10 @@
     </row>
     <row r="209" spans="1:12" ht="31">
       <c r="A209" s="54" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B209" s="76" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C209" s="26"/>
       <c r="D209" s="27"/>
@@ -9235,10 +9239,10 @@
     <row r="211" spans="1:12" outlineLevel="1">
       <c r="A211" s="54"/>
       <c r="B211" s="8" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C211" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D211" s="27"/>
       <c r="E211" s="113" t="str">
@@ -9265,10 +9269,10 @@
     <row r="212" spans="1:12" outlineLevel="1">
       <c r="A212" s="54"/>
       <c r="B212" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C212" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D212" s="27"/>
       <c r="E212" s="113" t="str">
@@ -9295,10 +9299,10 @@
     <row r="213" spans="1:12" outlineLevel="1">
       <c r="A213" s="54"/>
       <c r="B213" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C213" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D213" s="27"/>
       <c r="E213" s="113" t="str">
@@ -9325,10 +9329,10 @@
     <row r="214" spans="1:12" outlineLevel="1">
       <c r="A214" s="54"/>
       <c r="B214" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C214" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D214" s="27"/>
       <c r="E214" s="113" t="str">
@@ -9355,10 +9359,10 @@
     <row r="215" spans="1:12" outlineLevel="1">
       <c r="A215" s="54"/>
       <c r="B215" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C215" s="46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D215" s="27"/>
       <c r="E215" s="113" t="str">
@@ -9385,10 +9389,10 @@
     <row r="216" spans="1:12" outlineLevel="1">
       <c r="A216" s="54"/>
       <c r="B216" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C216" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D216" s="27"/>
       <c r="E216" s="113" t="str">
@@ -9415,10 +9419,10 @@
     <row r="217" spans="1:12" outlineLevel="1">
       <c r="A217" s="54"/>
       <c r="B217" s="8" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C217" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D217" s="27"/>
       <c r="E217" s="113" t="str">
@@ -9445,10 +9449,10 @@
     <row r="218" spans="1:12" outlineLevel="1">
       <c r="A218" s="54"/>
       <c r="B218" s="8" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C218" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D218" s="27"/>
       <c r="E218" s="113" t="str">
@@ -9475,10 +9479,10 @@
     <row r="219" spans="1:12" outlineLevel="1">
       <c r="A219" s="54"/>
       <c r="B219" s="22" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="C219" s="46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D219" s="27"/>
       <c r="E219" s="113" t="str">
@@ -9505,7 +9509,7 @@
     <row r="220" spans="1:12" outlineLevel="1">
       <c r="A220" s="54"/>
       <c r="B220" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C220" s="26"/>
       <c r="D220" s="27"/>
@@ -9558,10 +9562,10 @@
     </row>
     <row r="222" spans="1:12" ht="15" customHeight="1">
       <c r="A222" s="54" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B222" s="76" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C222" s="26"/>
       <c r="D222" s="27"/>
@@ -9615,10 +9619,10 @@
     <row r="224" spans="1:12" outlineLevel="1">
       <c r="A224" s="54"/>
       <c r="B224" s="8" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C224" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D224" s="27"/>
       <c r="E224" s="113" t="str">
@@ -9645,10 +9649,10 @@
     <row r="225" spans="1:12" outlineLevel="1">
       <c r="A225" s="54"/>
       <c r="B225" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C225" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D225" s="27"/>
       <c r="E225" s="113" t="str">
@@ -9675,10 +9679,10 @@
     <row r="226" spans="1:12" outlineLevel="1">
       <c r="A226" s="54"/>
       <c r="B226" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C226" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D226" s="27"/>
       <c r="E226" s="113" t="str">
@@ -9705,10 +9709,10 @@
     <row r="227" spans="1:12" outlineLevel="1">
       <c r="A227" s="54"/>
       <c r="B227" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C227" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D227" s="27"/>
       <c r="E227" s="113" t="str">
@@ -9760,10 +9764,10 @@
     </row>
     <row r="229" spans="1:12">
       <c r="A229" s="54" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B229" s="76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C229" s="26"/>
       <c r="D229" s="27"/>
@@ -9817,10 +9821,10 @@
     <row r="231" spans="1:12" outlineLevel="1">
       <c r="A231" s="54"/>
       <c r="B231" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C231" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D231" s="27"/>
       <c r="E231" s="113" t="str">
@@ -9847,10 +9851,10 @@
     <row r="232" spans="1:12" outlineLevel="1">
       <c r="A232" s="54"/>
       <c r="B232" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C232" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D232" s="27"/>
       <c r="E232" s="113" t="str">
@@ -9877,10 +9881,10 @@
     <row r="233" spans="1:12" outlineLevel="1">
       <c r="A233" s="54"/>
       <c r="B233" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C233" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D233" s="27"/>
       <c r="E233" s="113" t="str">
@@ -9907,10 +9911,10 @@
     <row r="234" spans="1:12" outlineLevel="1">
       <c r="A234" s="54"/>
       <c r="B234" s="22" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C234" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D234" s="27"/>
       <c r="E234" s="113" t="str">
@@ -9937,10 +9941,10 @@
     <row r="235" spans="1:12" outlineLevel="1">
       <c r="A235" s="54"/>
       <c r="B235" s="22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C235" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D235" s="27"/>
       <c r="E235" s="113" t="str">
@@ -9967,10 +9971,10 @@
     <row r="236" spans="1:12" outlineLevel="1">
       <c r="A236" s="54"/>
       <c r="B236" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C236" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D236" s="27"/>
       <c r="E236" s="113" t="str">
@@ -9997,10 +10001,10 @@
     <row r="237" spans="1:12" outlineLevel="1">
       <c r="A237" s="54"/>
       <c r="B237" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C237" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D237" s="27"/>
       <c r="E237" s="113" t="str">
@@ -10027,10 +10031,10 @@
     <row r="238" spans="1:12" outlineLevel="1">
       <c r="A238" s="54"/>
       <c r="B238" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C238" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D238" s="27"/>
       <c r="E238" s="113" t="str">
@@ -10057,10 +10061,10 @@
     <row r="239" spans="1:12" outlineLevel="1">
       <c r="A239" s="54"/>
       <c r="B239" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C239" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D239" s="27"/>
       <c r="E239" s="113" t="str">
@@ -10112,10 +10116,10 @@
     </row>
     <row r="241" spans="1:12">
       <c r="A241" s="54" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B241" s="76" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C241" s="26"/>
       <c r="D241" s="27"/>
@@ -10169,10 +10173,10 @@
     <row r="243" spans="1:12" outlineLevel="1">
       <c r="A243" s="54"/>
       <c r="B243" s="22" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C243" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D243" s="27"/>
       <c r="E243" s="113" t="str">
@@ -10199,10 +10203,10 @@
     <row r="244" spans="1:12" outlineLevel="1">
       <c r="A244" s="54"/>
       <c r="B244" s="22" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C244" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D244" s="27"/>
       <c r="E244" s="113" t="str">
@@ -10229,10 +10233,10 @@
     <row r="245" spans="1:12" outlineLevel="1">
       <c r="A245" s="54"/>
       <c r="B245" s="22" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C245" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D245" s="27"/>
       <c r="E245" s="113" t="str">
@@ -10259,10 +10263,10 @@
     <row r="246" spans="1:12" outlineLevel="1">
       <c r="A246" s="54"/>
       <c r="B246" s="22" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C246" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D246" s="27"/>
       <c r="E246" s="113" t="str">
@@ -10289,10 +10293,10 @@
     <row r="247" spans="1:12" outlineLevel="1">
       <c r="A247" s="54"/>
       <c r="B247" s="22" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C247" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D247" s="27"/>
       <c r="E247" s="113" t="str">
@@ -10319,10 +10323,10 @@
     <row r="248" spans="1:12" outlineLevel="1">
       <c r="A248" s="54"/>
       <c r="B248" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C248" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D248" s="27"/>
       <c r="E248" s="113" t="str">
@@ -10349,10 +10353,10 @@
     <row r="249" spans="1:12" outlineLevel="1">
       <c r="A249" s="54"/>
       <c r="B249" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C249" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D249" s="27"/>
       <c r="E249" s="113" t="str">
@@ -10379,10 +10383,10 @@
     <row r="250" spans="1:12" outlineLevel="1">
       <c r="A250" s="54"/>
       <c r="B250" s="22" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C250" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D250" s="27"/>
       <c r="E250" s="113" t="str">
@@ -10409,10 +10413,10 @@
     <row r="251" spans="1:12" outlineLevel="1">
       <c r="A251" s="54"/>
       <c r="B251" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C251" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D251" s="27"/>
       <c r="E251" s="113" t="str">
@@ -10439,10 +10443,10 @@
     <row r="252" spans="1:12" outlineLevel="1">
       <c r="A252" s="54"/>
       <c r="B252" s="22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C252" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D252" s="27"/>
       <c r="E252" s="113" t="str">
@@ -10494,10 +10498,10 @@
     </row>
     <row r="254" spans="1:12">
       <c r="A254" s="54" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B254" s="76" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C254" s="26"/>
       <c r="D254" s="27"/>
@@ -10551,10 +10555,10 @@
     <row r="256" spans="1:12" outlineLevel="1">
       <c r="A256" s="54"/>
       <c r="B256" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C256" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D256" s="27"/>
       <c r="E256" s="113" t="str">
@@ -10581,10 +10585,10 @@
     <row r="257" spans="1:12" outlineLevel="1">
       <c r="A257" s="54"/>
       <c r="B257" s="22" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C257" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D257" s="27"/>
       <c r="E257" s="113" t="str">
@@ -10611,10 +10615,10 @@
     <row r="258" spans="1:12" outlineLevel="1">
       <c r="A258" s="54"/>
       <c r="B258" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C258" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D258" s="27"/>
       <c r="E258" s="113" t="str">
@@ -10641,10 +10645,10 @@
     <row r="259" spans="1:12" outlineLevel="1">
       <c r="A259" s="54"/>
       <c r="B259" s="22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C259" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D259" s="27"/>
       <c r="E259" s="113" t="str">
@@ -10671,10 +10675,10 @@
     <row r="260" spans="1:12" outlineLevel="1">
       <c r="A260" s="54"/>
       <c r="B260" s="22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C260" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D260" s="27"/>
       <c r="E260" s="113" t="str">
@@ -10701,10 +10705,10 @@
     <row r="261" spans="1:12" outlineLevel="1">
       <c r="A261" s="54"/>
       <c r="B261" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C261" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D261" s="27"/>
       <c r="E261" s="113" t="str">
@@ -10731,10 +10735,10 @@
     <row r="262" spans="1:12" outlineLevel="1">
       <c r="A262" s="54"/>
       <c r="B262" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C262" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D262" s="27"/>
       <c r="E262" s="113" t="str">
@@ -10761,10 +10765,10 @@
     <row r="263" spans="1:12" outlineLevel="1">
       <c r="A263" s="54"/>
       <c r="B263" s="22" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C263" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D263" s="27"/>
       <c r="E263" s="113" t="str">
@@ -10791,10 +10795,10 @@
     <row r="264" spans="1:12" outlineLevel="1">
       <c r="A264" s="54"/>
       <c r="B264" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C264" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D264" s="27"/>
       <c r="E264" s="113" t="str">
@@ -10821,10 +10825,10 @@
     <row r="265" spans="1:12" outlineLevel="1">
       <c r="A265" s="54"/>
       <c r="B265" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C265" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D265" s="27"/>
       <c r="E265" s="113" t="str">
@@ -10851,10 +10855,10 @@
     <row r="266" spans="1:12" outlineLevel="1">
       <c r="A266" s="54"/>
       <c r="B266" s="22" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C266" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D266" s="27"/>
       <c r="E266" s="113" t="str">
@@ -10881,10 +10885,10 @@
     <row r="267" spans="1:12" outlineLevel="1">
       <c r="A267" s="54"/>
       <c r="B267" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C267" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D267" s="27"/>
       <c r="E267" s="113" t="str">
@@ -10911,10 +10915,10 @@
     <row r="268" spans="1:12" outlineLevel="1">
       <c r="A268" s="54"/>
       <c r="B268" s="22" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C268" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D268" s="27"/>
       <c r="E268" s="113" t="str">
@@ -10941,10 +10945,10 @@
     <row r="269" spans="1:12" outlineLevel="1">
       <c r="A269" s="54"/>
       <c r="B269" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C269" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D269" s="27"/>
       <c r="E269" s="113" t="str">
@@ -10971,10 +10975,10 @@
     <row r="270" spans="1:12" outlineLevel="1">
       <c r="A270" s="54"/>
       <c r="B270" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C270" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D270" s="27"/>
       <c r="E270" s="113" t="str">
@@ -11001,10 +11005,10 @@
     <row r="271" spans="1:12" outlineLevel="1">
       <c r="A271" s="54"/>
       <c r="B271" s="22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C271" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D271" s="27"/>
       <c r="E271" s="113" t="str">
@@ -11031,10 +11035,10 @@
     <row r="272" spans="1:12" outlineLevel="1">
       <c r="A272" s="54"/>
       <c r="B272" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C272" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D272" s="27"/>
       <c r="E272" s="113" t="str">
@@ -11061,10 +11065,10 @@
     <row r="273" spans="1:12" outlineLevel="1">
       <c r="A273" s="54"/>
       <c r="B273" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C273" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D273" s="27"/>
       <c r="E273" s="113" t="str">
@@ -11091,10 +11095,10 @@
     <row r="274" spans="1:12" outlineLevel="1">
       <c r="A274" s="54"/>
       <c r="B274" s="22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C274" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D274" s="27"/>
       <c r="E274" s="113" t="str">
@@ -11121,10 +11125,10 @@
     <row r="275" spans="1:12" outlineLevel="1">
       <c r="A275" s="54"/>
       <c r="B275" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C275" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D275" s="27"/>
       <c r="E275" s="113" t="str">
@@ -11151,10 +11155,10 @@
     <row r="276" spans="1:12" outlineLevel="1">
       <c r="A276" s="54"/>
       <c r="B276" s="22" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C276" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D276" s="27"/>
       <c r="E276" s="113" t="str">
@@ -11181,10 +11185,10 @@
     <row r="277" spans="1:12" outlineLevel="1">
       <c r="A277" s="54"/>
       <c r="B277" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C277" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D277" s="27"/>
       <c r="E277" s="113" t="str">
@@ -11236,10 +11240,10 @@
     </row>
     <row r="279" spans="1:12">
       <c r="A279" s="54" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B279" s="76" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C279" s="26"/>
       <c r="D279" s="27"/>
@@ -11293,10 +11297,10 @@
     <row r="281" spans="1:12" outlineLevel="1">
       <c r="A281" s="54"/>
       <c r="B281" s="22" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C281" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D281" s="27"/>
       <c r="E281" s="113" t="str">
@@ -11323,10 +11327,10 @@
     <row r="282" spans="1:12" outlineLevel="1">
       <c r="A282" s="54"/>
       <c r="B282" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C282" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D282" s="27"/>
       <c r="E282" s="113" t="str">
@@ -11353,10 +11357,10 @@
     <row r="283" spans="1:12" outlineLevel="1">
       <c r="A283" s="54"/>
       <c r="B283" s="22" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="C283" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D283" s="27"/>
       <c r="E283" s="113" t="str">
@@ -11383,10 +11387,10 @@
     <row r="284" spans="1:12" outlineLevel="1">
       <c r="A284" s="54"/>
       <c r="B284" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C284" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D284" s="27"/>
       <c r="E284" s="113" t="str">
@@ -11413,10 +11417,10 @@
     <row r="285" spans="1:12" outlineLevel="1">
       <c r="A285" s="54"/>
       <c r="B285" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C285" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D285" s="27"/>
       <c r="E285" s="113" t="str">
@@ -11443,10 +11447,10 @@
     <row r="286" spans="1:12" outlineLevel="1">
       <c r="A286" s="54"/>
       <c r="B286" s="22" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="C286" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D286" s="27"/>
       <c r="E286" s="113" t="str">
@@ -11473,10 +11477,10 @@
     <row r="287" spans="1:12" outlineLevel="1">
       <c r="A287" s="54"/>
       <c r="B287" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C287" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D287" s="27"/>
       <c r="E287" s="113" t="str">
@@ -11503,10 +11507,10 @@
     <row r="288" spans="1:12" outlineLevel="1">
       <c r="A288" s="54"/>
       <c r="B288" s="22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C288" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D288" s="27"/>
       <c r="E288" s="113" t="str">
@@ -11558,10 +11562,10 @@
     </row>
     <row r="290" spans="1:12">
       <c r="A290" s="54" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B290" s="76" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C290" s="26"/>
       <c r="D290" s="27"/>
@@ -11615,10 +11619,10 @@
     <row r="292" spans="1:12" outlineLevel="1">
       <c r="A292" s="54"/>
       <c r="B292" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C292" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D292" s="27"/>
       <c r="E292" s="113" t="str">
@@ -11645,10 +11649,10 @@
     <row r="293" spans="1:12" outlineLevel="1">
       <c r="A293" s="54"/>
       <c r="B293" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C293" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D293" s="27"/>
       <c r="E293" s="113" t="str">
@@ -11675,10 +11679,10 @@
     <row r="294" spans="1:12" outlineLevel="1">
       <c r="A294" s="54"/>
       <c r="B294" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C294" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D294" s="27"/>
       <c r="E294" s="113" t="str">
@@ -11705,10 +11709,10 @@
     <row r="295" spans="1:12" outlineLevel="1">
       <c r="A295" s="54"/>
       <c r="B295" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C295" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D295" s="27"/>
       <c r="E295" s="113" t="str">
@@ -11735,10 +11739,10 @@
     <row r="296" spans="1:12" outlineLevel="1">
       <c r="A296" s="54"/>
       <c r="B296" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C296" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D296" s="27"/>
       <c r="E296" s="113" t="str">
@@ -11765,10 +11769,10 @@
     <row r="297" spans="1:12" outlineLevel="1">
       <c r="A297" s="54"/>
       <c r="B297" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C297" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D297" s="27"/>
       <c r="E297" s="113" t="str">
@@ -11821,10 +11825,10 @@
     <row r="299" spans="1:12" outlineLevel="1">
       <c r="A299" s="54"/>
       <c r="B299" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C299" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D299" s="27"/>
       <c r="E299" s="113" t="str">
@@ -11851,10 +11855,10 @@
     <row r="300" spans="1:12" outlineLevel="1">
       <c r="A300" s="54"/>
       <c r="B300" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C300" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D300" s="27"/>
       <c r="E300" s="113" t="str">
@@ -11881,10 +11885,10 @@
     <row r="301" spans="1:12" outlineLevel="1">
       <c r="A301" s="54"/>
       <c r="B301" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C301" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D301" s="27"/>
       <c r="E301" s="113" t="str">
@@ -11911,10 +11915,10 @@
     <row r="302" spans="1:12" outlineLevel="1">
       <c r="A302" s="54"/>
       <c r="B302" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C302" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D302" s="27"/>
       <c r="E302" s="113" t="str">
@@ -11941,10 +11945,10 @@
     <row r="303" spans="1:12" outlineLevel="1">
       <c r="A303" s="54"/>
       <c r="B303" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C303" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D303" s="27"/>
       <c r="E303" s="113" t="str">
@@ -11971,10 +11975,10 @@
     <row r="304" spans="1:12" outlineLevel="1">
       <c r="A304" s="54"/>
       <c r="B304" s="8" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C304" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D304" s="27"/>
       <c r="E304" s="113" t="str">
@@ -12026,10 +12030,10 @@
     </row>
     <row r="306" spans="1:12">
       <c r="A306" s="54" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B306" s="76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C306" s="26"/>
       <c r="D306" s="27"/>
@@ -12083,10 +12087,10 @@
     <row r="308" spans="1:12" outlineLevel="1">
       <c r="A308" s="54"/>
       <c r="B308" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C308" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D308" s="27"/>
       <c r="E308" s="113" t="str">
@@ -12113,10 +12117,10 @@
     <row r="309" spans="1:12" outlineLevel="1">
       <c r="A309" s="54"/>
       <c r="B309" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C309" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D309" s="27"/>
       <c r="E309" s="113" t="str">
@@ -12143,10 +12147,10 @@
     <row r="310" spans="1:12" outlineLevel="1">
       <c r="A310" s="54"/>
       <c r="B310" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C310" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D310" s="27"/>
       <c r="E310" s="113" t="str">
@@ -12173,10 +12177,10 @@
     <row r="311" spans="1:12" outlineLevel="1">
       <c r="A311" s="54"/>
       <c r="B311" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C311" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D311" s="27"/>
       <c r="E311" s="113" t="str">
@@ -12203,10 +12207,10 @@
     <row r="312" spans="1:12" outlineLevel="1">
       <c r="A312" s="54"/>
       <c r="B312" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C312" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D312" s="27"/>
       <c r="E312" s="113" t="str">
@@ -12258,10 +12262,10 @@
     </row>
     <row r="314" spans="1:12">
       <c r="A314" s="54" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B314" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C314" s="26"/>
       <c r="D314" s="27"/>
@@ -12315,10 +12319,10 @@
     <row r="316" spans="1:12" outlineLevel="1">
       <c r="A316" s="54"/>
       <c r="B316" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C316" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D316" s="27"/>
       <c r="E316" s="113" t="str">
@@ -12345,10 +12349,10 @@
     <row r="317" spans="1:12" outlineLevel="1">
       <c r="A317" s="54"/>
       <c r="B317" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C317" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D317" s="27"/>
       <c r="E317" s="113" t="str">
@@ -12375,10 +12379,10 @@
     <row r="318" spans="1:12" outlineLevel="1">
       <c r="A318" s="54"/>
       <c r="B318" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C318" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D318" s="27"/>
       <c r="E318" s="113" t="str">
@@ -12405,10 +12409,10 @@
     <row r="319" spans="1:12" outlineLevel="1">
       <c r="A319" s="54"/>
       <c r="B319" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C319" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D319" s="27"/>
       <c r="E319" s="113" t="str">
@@ -12435,10 +12439,10 @@
     <row r="320" spans="1:12" outlineLevel="1">
       <c r="A320" s="54"/>
       <c r="B320" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C320" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D320" s="27"/>
       <c r="E320" s="113" t="str">
@@ -12465,10 +12469,10 @@
     <row r="321" spans="1:12" outlineLevel="1">
       <c r="A321" s="54"/>
       <c r="B321" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C321" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D321" s="27"/>
       <c r="E321" s="113" t="str">
@@ -12495,10 +12499,10 @@
     <row r="322" spans="1:12" outlineLevel="1">
       <c r="A322" s="54"/>
       <c r="B322" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C322" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D322" s="27"/>
       <c r="E322" s="113" t="str">
@@ -12525,10 +12529,10 @@
     <row r="323" spans="1:12" outlineLevel="1">
       <c r="A323" s="54"/>
       <c r="B323" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C323" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D323" s="27"/>
       <c r="E323" s="113" t="str">
@@ -12555,10 +12559,10 @@
     <row r="324" spans="1:12" outlineLevel="1">
       <c r="A324" s="54"/>
       <c r="B324" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C324" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D324" s="27"/>
       <c r="E324" s="113" t="str">
@@ -12585,10 +12589,10 @@
     <row r="325" spans="1:12" outlineLevel="1">
       <c r="A325" s="54"/>
       <c r="B325" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C325" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D325" s="27"/>
       <c r="E325" s="113" t="str">
@@ -12615,10 +12619,10 @@
     <row r="326" spans="1:12" outlineLevel="1">
       <c r="A326" s="54"/>
       <c r="B326" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C326" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D326" s="27"/>
       <c r="E326" s="113" t="str">
@@ -12645,10 +12649,10 @@
     <row r="327" spans="1:12" outlineLevel="1">
       <c r="A327" s="54"/>
       <c r="B327" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C327" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D327" s="27"/>
       <c r="E327" s="113" t="str">
@@ -12675,10 +12679,10 @@
     <row r="328" spans="1:12" outlineLevel="1">
       <c r="A328" s="54"/>
       <c r="B328" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C328" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D328" s="27"/>
       <c r="E328" s="113" t="str">
@@ -12705,10 +12709,10 @@
     <row r="329" spans="1:12" outlineLevel="1">
       <c r="A329" s="54"/>
       <c r="B329" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C329" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D329" s="27"/>
       <c r="E329" s="113" t="str">
@@ -12735,10 +12739,10 @@
     <row r="330" spans="1:12" outlineLevel="1">
       <c r="A330" s="54"/>
       <c r="B330" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C330" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D330" s="27"/>
       <c r="E330" s="113" t="str">
@@ -12765,10 +12769,10 @@
     <row r="331" spans="1:12" outlineLevel="1">
       <c r="A331" s="54"/>
       <c r="B331" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C331" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D331" s="27"/>
       <c r="E331" s="113" t="str">
@@ -12795,10 +12799,10 @@
     <row r="332" spans="1:12" outlineLevel="1">
       <c r="A332" s="54"/>
       <c r="B332" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C332" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D332" s="27"/>
       <c r="E332" s="113" t="str">
@@ -12825,10 +12829,10 @@
     <row r="333" spans="1:12" outlineLevel="1">
       <c r="A333" s="54"/>
       <c r="B333" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C333" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D333" s="27"/>
       <c r="E333" s="113" t="str">
@@ -12880,10 +12884,10 @@
     </row>
     <row r="335" spans="1:12">
       <c r="A335" s="54" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B335" s="76" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C335" s="46"/>
       <c r="D335" s="27"/>
@@ -12937,10 +12941,10 @@
     <row r="337" spans="1:12" outlineLevel="1">
       <c r="A337" s="54"/>
       <c r="B337" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C337" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D337" s="27"/>
       <c r="E337" s="113" t="str">
@@ -12967,10 +12971,10 @@
     <row r="338" spans="1:12" outlineLevel="1">
       <c r="A338" s="54"/>
       <c r="B338" s="8" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C338" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D338" s="27"/>
       <c r="E338" s="113" t="str">
@@ -12997,10 +13001,10 @@
     <row r="339" spans="1:12" outlineLevel="1">
       <c r="A339" s="54"/>
       <c r="B339" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C339" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D339" s="27"/>
       <c r="E339" s="113" t="str">
@@ -13027,10 +13031,10 @@
     <row r="340" spans="1:12" outlineLevel="1">
       <c r="A340" s="54"/>
       <c r="B340" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C340" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D340" s="27"/>
       <c r="E340" s="113" t="str">
@@ -13057,10 +13061,10 @@
     <row r="341" spans="1:12" outlineLevel="1">
       <c r="A341" s="54"/>
       <c r="B341" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C341" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D341" s="27"/>
       <c r="E341" s="113" t="str">
@@ -13087,10 +13091,10 @@
     <row r="342" spans="1:12" outlineLevel="1">
       <c r="A342" s="54"/>
       <c r="B342" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C342" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D342" s="27"/>
       <c r="E342" s="113" t="str">
@@ -13117,10 +13121,10 @@
     <row r="343" spans="1:12" outlineLevel="1">
       <c r="A343" s="54"/>
       <c r="B343" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C343" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D343" s="27"/>
       <c r="E343" s="113" t="str">
@@ -13147,10 +13151,10 @@
     <row r="344" spans="1:12" outlineLevel="1">
       <c r="A344" s="54"/>
       <c r="B344" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C344" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D344" s="27"/>
       <c r="E344" s="113" t="str">
@@ -13177,10 +13181,10 @@
     <row r="345" spans="1:12" ht="31" outlineLevel="1">
       <c r="A345" s="54"/>
       <c r="B345" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C345" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D345" s="27"/>
       <c r="E345" s="113" t="str">
@@ -13207,10 +13211,10 @@
     <row r="346" spans="1:12" outlineLevel="1">
       <c r="A346" s="54"/>
       <c r="B346" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C346" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D346" s="27"/>
       <c r="E346" s="113" t="str">
@@ -13262,10 +13266,10 @@
     </row>
     <row r="348" spans="1:12">
       <c r="A348" s="54" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B348" s="76" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="C348" s="26"/>
       <c r="D348" s="27"/>
@@ -13319,10 +13323,10 @@
     <row r="350" spans="1:12" outlineLevel="1">
       <c r="A350" s="54"/>
       <c r="B350" s="8" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C350" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D350" s="27"/>
       <c r="E350" s="113" t="str">
@@ -13349,10 +13353,10 @@
     <row r="351" spans="1:12" outlineLevel="1">
       <c r="A351" s="54"/>
       <c r="B351" s="8" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C351" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D351" s="27"/>
       <c r="E351" s="113" t="str">
@@ -13379,10 +13383,10 @@
     <row r="352" spans="1:12" outlineLevel="1">
       <c r="A352" s="54"/>
       <c r="B352" s="8" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C352" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D352" s="27"/>
       <c r="E352" s="113" t="str">
@@ -13409,10 +13413,10 @@
     <row r="353" spans="1:12" outlineLevel="1">
       <c r="A353" s="54"/>
       <c r="B353" s="8" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C353" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D353" s="27"/>
       <c r="E353" s="113" t="str">
@@ -13439,10 +13443,10 @@
     <row r="354" spans="1:12" outlineLevel="1">
       <c r="A354" s="54"/>
       <c r="B354" s="8" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C354" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D354" s="27"/>
       <c r="E354" s="113" t="str">
@@ -13469,10 +13473,10 @@
     <row r="355" spans="1:12" outlineLevel="1">
       <c r="A355" s="54"/>
       <c r="B355" s="8" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C355" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D355" s="27"/>
       <c r="E355" s="113" t="str">
@@ -13499,10 +13503,10 @@
     <row r="356" spans="1:12" outlineLevel="1">
       <c r="A356" s="54"/>
       <c r="B356" s="8" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C356" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D356" s="27"/>
       <c r="E356" s="113" t="str">
@@ -13529,10 +13533,10 @@
     <row r="357" spans="1:12" outlineLevel="1">
       <c r="A357" s="54"/>
       <c r="B357" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C357" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D357" s="27"/>
       <c r="E357" s="113" t="str">
@@ -13559,10 +13563,10 @@
     <row r="358" spans="1:12" outlineLevel="1">
       <c r="A358" s="54"/>
       <c r="B358" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C358" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D358" s="27"/>
       <c r="E358" s="113" t="str">
@@ -13589,10 +13593,10 @@
     <row r="359" spans="1:12" outlineLevel="1">
       <c r="A359" s="54"/>
       <c r="B359" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C359" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D359" s="27"/>
       <c r="E359" s="113" t="str">
@@ -13644,10 +13648,10 @@
     </row>
     <row r="361" spans="1:12" ht="18.75" customHeight="1">
       <c r="A361" s="54" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B361" s="76" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C361" s="26"/>
       <c r="D361" s="27"/>
@@ -13701,10 +13705,10 @@
     <row r="363" spans="1:12" outlineLevel="1">
       <c r="A363" s="54"/>
       <c r="B363" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C363" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D363" s="27"/>
       <c r="E363" s="113" t="str">
@@ -13731,10 +13735,10 @@
     <row r="364" spans="1:12" outlineLevel="1">
       <c r="A364" s="54"/>
       <c r="B364" s="8" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C364" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D364" s="27"/>
       <c r="E364" s="113" t="str">
@@ -13761,10 +13765,10 @@
     <row r="365" spans="1:12" outlineLevel="1">
       <c r="A365" s="54"/>
       <c r="B365" s="8" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C365" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D365" s="27"/>
       <c r="E365" s="113" t="str">
@@ -13791,10 +13795,10 @@
     <row r="366" spans="1:12" outlineLevel="1">
       <c r="A366" s="54"/>
       <c r="B366" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="C366" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D366" s="27"/>
       <c r="E366" s="113" t="str">
@@ -13821,10 +13825,10 @@
     <row r="367" spans="1:12" outlineLevel="1">
       <c r="A367" s="54"/>
       <c r="B367" s="8" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="C367" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D367" s="27"/>
       <c r="E367" s="113" t="str">
@@ -13851,10 +13855,10 @@
     <row r="368" spans="1:12" outlineLevel="1">
       <c r="A368" s="54"/>
       <c r="B368" s="8" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="C368" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D368" s="27"/>
       <c r="E368" s="113" t="str">
@@ -13881,10 +13885,10 @@
     <row r="369" spans="1:12" outlineLevel="1">
       <c r="A369" s="54"/>
       <c r="B369" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C369" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D369" s="27"/>
       <c r="E369" s="113" t="str">
@@ -13927,7 +13931,7 @@
         <v>4</v>
       </c>
       <c r="B371" s="59" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C371" s="68"/>
       <c r="D371" s="69"/>
@@ -13956,10 +13960,10 @@
     </row>
     <row r="373" spans="1:12">
       <c r="A373" s="54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B373" s="76" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C373" s="26"/>
       <c r="D373" s="27"/>
@@ -14013,10 +14017,10 @@
     <row r="375" spans="1:12" outlineLevel="1">
       <c r="A375" s="54"/>
       <c r="B375" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C375" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D375" s="27"/>
       <c r="E375" s="113" t="str">
@@ -14043,10 +14047,10 @@
     <row r="376" spans="1:12" outlineLevel="1">
       <c r="A376" s="54"/>
       <c r="B376" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C376" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D376" s="27"/>
       <c r="E376" s="113" t="str">
@@ -14073,10 +14077,10 @@
     <row r="377" spans="1:12" outlineLevel="1">
       <c r="A377" s="54"/>
       <c r="B377" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C377" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D377" s="27"/>
       <c r="E377" s="113" t="str">
@@ -14103,10 +14107,10 @@
     <row r="378" spans="1:12" outlineLevel="1">
       <c r="A378" s="54"/>
       <c r="B378" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C378" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D378" s="27"/>
       <c r="E378" s="113" t="str">
@@ -14133,10 +14137,10 @@
     <row r="379" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A379" s="54"/>
       <c r="B379" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C379" s="26" t="s">
         <v>25</v>
-      </c>
-      <c r="C379" s="26" t="s">
-        <v>26</v>
       </c>
       <c r="D379" s="27"/>
       <c r="E379" s="113" t="str">
@@ -14188,10 +14192,10 @@
     </row>
     <row r="381" spans="1:12">
       <c r="A381" s="54" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B381" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C381" s="26"/>
       <c r="D381" s="27"/>
@@ -14245,10 +14249,10 @@
     <row r="383" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A383" s="54"/>
       <c r="B383" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C383" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D383" s="27"/>
       <c r="E383" s="113" t="str">
@@ -14275,10 +14279,10 @@
     <row r="384" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A384" s="54"/>
       <c r="B384" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C384" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D384" s="27"/>
       <c r="E384" s="113" t="str">
@@ -14305,10 +14309,10 @@
     <row r="385" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A385" s="54"/>
       <c r="B385" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C385" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D385" s="27"/>
       <c r="E385" s="113" t="str">
@@ -14335,10 +14339,10 @@
     <row r="386" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A386" s="54"/>
       <c r="B386" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C386" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D386" s="27"/>
       <c r="E386" s="113" t="str">
@@ -14365,10 +14369,10 @@
     <row r="387" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A387" s="54"/>
       <c r="B387" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C387" s="26" t="s">
         <v>25</v>
-      </c>
-      <c r="C387" s="26" t="s">
-        <v>26</v>
       </c>
       <c r="D387" s="27"/>
       <c r="E387" s="113" t="str">
@@ -14420,10 +14424,10 @@
     </row>
     <row r="389" spans="1:12">
       <c r="A389" s="54" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B389" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C389" s="26"/>
       <c r="D389" s="27"/>
@@ -14477,10 +14481,10 @@
     <row r="391" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A391" s="54"/>
       <c r="B391" s="25" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C391" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D391" s="27"/>
       <c r="E391" s="113" t="str">
@@ -14507,10 +14511,10 @@
     <row r="392" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A392" s="54"/>
       <c r="B392" s="25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C392" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D392" s="27"/>
       <c r="E392" s="113" t="str">
@@ -14537,10 +14541,10 @@
     <row r="393" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A393" s="54"/>
       <c r="B393" s="25" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C393" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D393" s="27"/>
       <c r="E393" s="113" t="str">
@@ -14567,10 +14571,10 @@
     <row r="394" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A394" s="54"/>
       <c r="B394" s="25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C394" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D394" s="27"/>
       <c r="E394" s="113" t="str">
@@ -14597,10 +14601,10 @@
     <row r="395" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A395" s="54"/>
       <c r="B395" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C395" s="26" t="s">
         <v>25</v>
-      </c>
-      <c r="C395" s="26" t="s">
-        <v>26</v>
       </c>
       <c r="D395" s="27"/>
       <c r="E395" s="113" t="str">
@@ -14653,10 +14657,10 @@
     <row r="397" spans="1:12" ht="31" outlineLevel="1">
       <c r="A397" s="54"/>
       <c r="B397" s="8" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="C397" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D397" s="27"/>
       <c r="E397" s="113" t="str">
@@ -14708,10 +14712,10 @@
     </row>
     <row r="399" spans="1:12">
       <c r="A399" s="54" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B399" s="21" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C399" s="26"/>
       <c r="D399" s="27"/>
@@ -14765,7 +14769,7 @@
     <row r="401" spans="1:12" outlineLevel="1">
       <c r="A401" s="54"/>
       <c r="B401" s="22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C401" s="26"/>
       <c r="D401" s="27"/>
@@ -14793,7 +14797,7 @@
     <row r="402" spans="1:12" outlineLevel="1">
       <c r="A402" s="54"/>
       <c r="B402" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C402" s="26"/>
       <c r="D402" s="27"/>
@@ -14821,7 +14825,7 @@
     <row r="403" spans="1:12" outlineLevel="1">
       <c r="A403" s="54"/>
       <c r="B403" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C403" s="26"/>
       <c r="D403" s="27"/>
@@ -14849,7 +14853,7 @@
     <row r="404" spans="1:12" outlineLevel="1">
       <c r="A404" s="54"/>
       <c r="B404" s="22" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C404" s="26"/>
       <c r="D404" s="27"/>
@@ -14877,7 +14881,7 @@
     <row r="405" spans="1:12" outlineLevel="1">
       <c r="A405" s="54"/>
       <c r="B405" s="22" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C405" s="26"/>
       <c r="D405" s="27"/>
@@ -14905,7 +14909,7 @@
     <row r="406" spans="1:12" outlineLevel="1">
       <c r="A406" s="54"/>
       <c r="B406" s="22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C406" s="26"/>
       <c r="D406" s="27"/>
@@ -14933,7 +14937,7 @@
     <row r="407" spans="1:12" outlineLevel="1">
       <c r="A407" s="54"/>
       <c r="B407" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C407" s="26"/>
       <c r="D407" s="27"/>
@@ -14961,7 +14965,7 @@
     <row r="408" spans="1:12" outlineLevel="1">
       <c r="A408" s="54"/>
       <c r="B408" s="22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C408" s="26"/>
       <c r="D408" s="27"/>
@@ -14989,7 +14993,7 @@
     <row r="409" spans="1:12" outlineLevel="1">
       <c r="A409" s="54"/>
       <c r="B409" s="22" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C409" s="26"/>
       <c r="D409" s="27"/>
@@ -15043,10 +15047,10 @@
     <row r="411" spans="1:12" outlineLevel="1">
       <c r="A411" s="54"/>
       <c r="B411" s="22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C411" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D411" s="27"/>
       <c r="E411" s="113" t="str">
@@ -15073,10 +15077,10 @@
     <row r="412" spans="1:12" outlineLevel="1">
       <c r="A412" s="54"/>
       <c r="B412" s="22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C412" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D412" s="27"/>
       <c r="E412" s="113" t="str">
@@ -15103,10 +15107,10 @@
     <row r="413" spans="1:12" outlineLevel="1">
       <c r="A413" s="54"/>
       <c r="B413" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C413" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D413" s="27"/>
       <c r="E413" s="113" t="str">
@@ -15133,10 +15137,10 @@
     <row r="414" spans="1:12" outlineLevel="1">
       <c r="A414" s="54"/>
       <c r="B414" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C414" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D414" s="27"/>
       <c r="E414" s="113" t="str">
@@ -15163,10 +15167,10 @@
     <row r="415" spans="1:12" outlineLevel="1">
       <c r="A415" s="54"/>
       <c r="B415" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C415" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D415" s="27"/>
       <c r="E415" s="113" t="str">
@@ -15193,10 +15197,10 @@
     <row r="416" spans="1:12" outlineLevel="1">
       <c r="A416" s="54"/>
       <c r="B416" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="C416" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D416" s="27"/>
       <c r="E416" s="113" t="str">
@@ -15223,10 +15227,10 @@
     <row r="417" spans="1:12" outlineLevel="1">
       <c r="A417" s="54"/>
       <c r="B417" s="22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="C417" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D417" s="27"/>
       <c r="E417" s="113" t="str">
@@ -15253,10 +15257,10 @@
     <row r="418" spans="1:12" outlineLevel="1">
       <c r="A418" s="54"/>
       <c r="B418" s="22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C418" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D418" s="27"/>
       <c r="E418" s="113" t="str">
@@ -15283,10 +15287,10 @@
     <row r="419" spans="1:12" outlineLevel="1">
       <c r="A419" s="54"/>
       <c r="B419" s="22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C419" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D419" s="27"/>
       <c r="E419" s="113" t="str">
@@ -15313,10 +15317,10 @@
     <row r="420" spans="1:12" outlineLevel="1">
       <c r="A420" s="54"/>
       <c r="B420" s="22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C420" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D420" s="27"/>
       <c r="E420" s="113" t="str">
@@ -15343,10 +15347,10 @@
     <row r="421" spans="1:12" outlineLevel="1">
       <c r="A421" s="54"/>
       <c r="B421" s="22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C421" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D421" s="27"/>
       <c r="E421" s="113" t="str">
@@ -15373,10 +15377,10 @@
     <row r="422" spans="1:12" outlineLevel="1">
       <c r="A422" s="54"/>
       <c r="B422" s="22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="C422" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D422" s="27"/>
       <c r="E422" s="113" t="str">
@@ -15428,10 +15432,10 @@
     </row>
     <row r="424" spans="1:12">
       <c r="A424" s="54" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B424" s="76" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C424" s="26"/>
       <c r="D424" s="27"/>
@@ -15485,10 +15489,10 @@
     <row r="426" spans="1:12" outlineLevel="1">
       <c r="A426" s="54"/>
       <c r="B426" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C426" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D426" s="27"/>
       <c r="E426" s="113" t="str">
@@ -15515,10 +15519,10 @@
     <row r="427" spans="1:12" outlineLevel="1">
       <c r="A427" s="54"/>
       <c r="B427" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C427" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D427" s="27"/>
       <c r="E427" s="113" t="str">
@@ -15545,10 +15549,10 @@
     <row r="428" spans="1:12" outlineLevel="1">
       <c r="A428" s="54"/>
       <c r="B428" s="8" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C428" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D428" s="27"/>
       <c r="E428" s="113" t="str">
@@ -15575,10 +15579,10 @@
     <row r="429" spans="1:12" outlineLevel="1">
       <c r="A429" s="54"/>
       <c r="B429" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C429" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D429" s="27"/>
       <c r="E429" s="113" t="str">
@@ -15630,10 +15634,10 @@
     </row>
     <row r="431" spans="1:12">
       <c r="A431" s="54" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B431" s="76" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C431" s="26"/>
       <c r="D431" s="27"/>
@@ -15687,10 +15691,10 @@
     <row r="433" spans="1:12" outlineLevel="1">
       <c r="A433" s="54"/>
       <c r="B433" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C433" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D433" s="27"/>
       <c r="E433" s="113" t="str">
@@ -15717,10 +15721,10 @@
     <row r="434" spans="1:12" outlineLevel="1">
       <c r="A434" s="54"/>
       <c r="B434" s="22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C434" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D434" s="27"/>
       <c r="E434" s="113" t="str">
@@ -15747,10 +15751,10 @@
     <row r="435" spans="1:12" outlineLevel="1">
       <c r="A435" s="54"/>
       <c r="B435" s="22" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C435" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D435" s="27"/>
       <c r="E435" s="113" t="str">
@@ -15777,10 +15781,10 @@
     <row r="436" spans="1:12" outlineLevel="1">
       <c r="A436" s="54"/>
       <c r="B436" s="22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C436" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D436" s="27"/>
       <c r="E436" s="113" t="str">
@@ -15807,10 +15811,10 @@
     <row r="437" spans="1:12" outlineLevel="1">
       <c r="A437" s="54"/>
       <c r="B437" s="22" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C437" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D437" s="27"/>
       <c r="E437" s="113" t="str">
@@ -15837,10 +15841,10 @@
     <row r="438" spans="1:12" outlineLevel="1">
       <c r="A438" s="54"/>
       <c r="B438" s="22" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C438" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D438" s="27"/>
       <c r="E438" s="113" t="str">
@@ -15867,10 +15871,10 @@
     <row r="439" spans="1:12" outlineLevel="1">
       <c r="A439" s="54"/>
       <c r="B439" s="22" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C439" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D439" s="27"/>
       <c r="E439" s="113" t="str">
@@ -15897,10 +15901,10 @@
     <row r="440" spans="1:12" outlineLevel="1">
       <c r="A440" s="54"/>
       <c r="B440" s="22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C440" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D440" s="27"/>
       <c r="E440" s="113" t="str">
@@ -15952,10 +15956,10 @@
     </row>
     <row r="442" spans="1:12">
       <c r="A442" s="54" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B442" s="76" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C442" s="26"/>
       <c r="D442" s="27"/>
@@ -16009,10 +16013,10 @@
     <row r="444" spans="1:12" ht="31" outlineLevel="1">
       <c r="A444" s="54"/>
       <c r="B444" s="22" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="C444" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D444" s="27"/>
       <c r="E444" s="113" t="str">
@@ -16039,10 +16043,10 @@
     <row r="445" spans="1:12" outlineLevel="1">
       <c r="A445" s="54"/>
       <c r="B445" s="22" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C445" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D445" s="27"/>
       <c r="E445" s="113" t="str">
@@ -16069,10 +16073,10 @@
     <row r="446" spans="1:12" outlineLevel="1">
       <c r="A446" s="54"/>
       <c r="B446" s="22" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C446" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D446" s="27"/>
       <c r="E446" s="113" t="str">
@@ -16099,10 +16103,10 @@
     <row r="447" spans="1:12" outlineLevel="1">
       <c r="A447" s="54"/>
       <c r="B447" s="22" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C447" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D447" s="27"/>
       <c r="E447" s="113" t="str">
@@ -16129,10 +16133,10 @@
     <row r="448" spans="1:12" outlineLevel="1">
       <c r="A448" s="54"/>
       <c r="B448" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C448" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D448" s="27"/>
       <c r="E448" s="113" t="str">
@@ -16159,10 +16163,10 @@
     <row r="449" spans="1:12" outlineLevel="1">
       <c r="A449" s="54"/>
       <c r="B449" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C449" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D449" s="27"/>
       <c r="E449" s="113" t="str">
@@ -16189,10 +16193,10 @@
     <row r="450" spans="1:12" outlineLevel="1">
       <c r="A450" s="54"/>
       <c r="B450" s="22" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C450" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D450" s="27"/>
       <c r="E450" s="113" t="str">
@@ -16219,10 +16223,10 @@
     <row r="451" spans="1:12" outlineLevel="1">
       <c r="A451" s="54"/>
       <c r="B451" s="22" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C451" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D451" s="27"/>
       <c r="E451" s="113" t="str">
@@ -16249,10 +16253,10 @@
     <row r="452" spans="1:12" outlineLevel="1">
       <c r="A452" s="54"/>
       <c r="B452" s="22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="C452" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D452" s="27"/>
       <c r="E452" s="113" t="str">
@@ -16279,10 +16283,10 @@
     <row r="453" spans="1:12" outlineLevel="1">
       <c r="A453" s="54"/>
       <c r="B453" s="32" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C453" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D453" s="27"/>
       <c r="E453" s="113" t="str">
@@ -16334,10 +16338,10 @@
     </row>
     <row r="455" spans="1:12">
       <c r="A455" s="54" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B455" s="76" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C455" s="26"/>
       <c r="D455" s="27"/>
@@ -16391,10 +16395,10 @@
     <row r="457" spans="1:12" outlineLevel="1">
       <c r="A457" s="54"/>
       <c r="B457" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C457" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D457" s="27"/>
       <c r="E457" s="113" t="str">
@@ -16421,10 +16425,10 @@
     <row r="458" spans="1:12" outlineLevel="1">
       <c r="A458" s="54"/>
       <c r="B458" s="22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C458" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D458" s="27"/>
       <c r="E458" s="113" t="str">
@@ -16451,10 +16455,10 @@
     <row r="459" spans="1:12" outlineLevel="1">
       <c r="A459" s="54"/>
       <c r="B459" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C459" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D459" s="27"/>
       <c r="E459" s="113" t="str">
@@ -16481,10 +16485,10 @@
     <row r="460" spans="1:12" outlineLevel="1">
       <c r="A460" s="54"/>
       <c r="B460" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C460" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D460" s="27"/>
       <c r="E460" s="113" t="str">
@@ -16511,10 +16515,10 @@
     <row r="461" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A461" s="54"/>
       <c r="B461" s="22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C461" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D461" s="27"/>
       <c r="E461" s="113" t="str">
@@ -16566,10 +16570,10 @@
     </row>
     <row r="463" spans="1:12">
       <c r="A463" s="54" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B463" s="76" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C463" s="26"/>
       <c r="D463" s="27"/>
@@ -16623,10 +16627,10 @@
     <row r="465" spans="1:12" outlineLevel="1">
       <c r="A465" s="54"/>
       <c r="B465" s="22" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C465" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D465" s="27"/>
       <c r="E465" s="113" t="str">
@@ -16653,10 +16657,10 @@
     <row r="466" spans="1:12" outlineLevel="1">
       <c r="A466" s="54"/>
       <c r="B466" s="22" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C466" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D466" s="27"/>
       <c r="E466" s="113" t="str">
@@ -16683,10 +16687,10 @@
     <row r="467" spans="1:12" outlineLevel="1">
       <c r="A467" s="54"/>
       <c r="B467" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C467" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D467" s="27"/>
       <c r="E467" s="113" t="str">
@@ -16713,10 +16717,10 @@
     <row r="468" spans="1:12" outlineLevel="1">
       <c r="A468" s="54"/>
       <c r="B468" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C468" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D468" s="27"/>
       <c r="E468" s="113" t="str">
@@ -16768,10 +16772,10 @@
     </row>
     <row r="470" spans="1:12">
       <c r="A470" s="54" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B470" s="76" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C470" s="26"/>
       <c r="D470" s="27"/>
@@ -16825,10 +16829,10 @@
     <row r="472" spans="1:12" outlineLevel="1">
       <c r="A472" s="54"/>
       <c r="B472" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C472" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D472" s="27"/>
       <c r="E472" s="113" t="str">
@@ -16855,10 +16859,10 @@
     <row r="473" spans="1:12" outlineLevel="1">
       <c r="A473" s="54"/>
       <c r="B473" s="22" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C473" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D473" s="27"/>
       <c r="E473" s="113" t="str">
@@ -16885,10 +16889,10 @@
     <row r="474" spans="1:12" outlineLevel="1">
       <c r="A474" s="54"/>
       <c r="B474" s="32" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C474" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D474" s="27"/>
       <c r="E474" s="113" t="str">
@@ -16940,10 +16944,10 @@
     </row>
     <row r="476" spans="1:12">
       <c r="A476" s="54" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B476" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C476" s="26"/>
       <c r="D476" s="27"/>
@@ -16997,10 +17001,10 @@
     <row r="478" spans="1:12" outlineLevel="1">
       <c r="A478" s="54"/>
       <c r="B478" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C478" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D478" s="27"/>
       <c r="E478" s="113" t="str">
@@ -17027,10 +17031,10 @@
     <row r="479" spans="1:12" outlineLevel="1">
       <c r="A479" s="54"/>
       <c r="B479" s="22" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C479" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D479" s="27"/>
       <c r="E479" s="113" t="str">
@@ -17057,10 +17061,10 @@
     <row r="480" spans="1:12" outlineLevel="1">
       <c r="A480" s="54"/>
       <c r="B480" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C480" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D480" s="27"/>
       <c r="E480" s="113" t="str">
@@ -17087,10 +17091,10 @@
     <row r="481" spans="1:12" outlineLevel="1">
       <c r="A481" s="54"/>
       <c r="B481" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C481" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D481" s="27"/>
       <c r="E481" s="113" t="str">
@@ -17117,10 +17121,10 @@
     <row r="482" spans="1:12" outlineLevel="1">
       <c r="A482" s="54"/>
       <c r="B482" s="22" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C482" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D482" s="27"/>
       <c r="E482" s="113" t="str">
@@ -17147,7 +17151,7 @@
     <row r="483" spans="1:12" outlineLevel="1">
       <c r="A483" s="54"/>
       <c r="B483" s="22" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C483" s="26"/>
       <c r="D483" s="27"/>
@@ -17175,10 +17179,10 @@
     <row r="484" spans="1:12" outlineLevel="1">
       <c r="A484" s="54"/>
       <c r="B484" s="22" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C484" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D484" s="27"/>
       <c r="E484" s="113" t="str">
@@ -17205,10 +17209,10 @@
     <row r="485" spans="1:12" ht="31" outlineLevel="1">
       <c r="A485" s="54"/>
       <c r="B485" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C485" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D485" s="27"/>
       <c r="E485" s="113" t="str">
@@ -17235,10 +17239,10 @@
     <row r="486" spans="1:12" outlineLevel="1">
       <c r="A486" s="54"/>
       <c r="B486" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C486" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D486" s="27"/>
       <c r="E486" s="113" t="str">
@@ -17265,10 +17269,10 @@
     <row r="487" spans="1:12" outlineLevel="1">
       <c r="A487" s="54"/>
       <c r="B487" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C487" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D487" s="27"/>
       <c r="E487" s="113" t="str">
@@ -17295,10 +17299,10 @@
     <row r="488" spans="1:12" outlineLevel="1">
       <c r="A488" s="54"/>
       <c r="B488" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C488" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D488" s="27"/>
       <c r="E488" s="113" t="str">
@@ -17341,7 +17345,7 @@
         <v>5</v>
       </c>
       <c r="B490" s="59" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C490" s="68"/>
       <c r="D490" s="69"/>
@@ -17370,10 +17374,10 @@
     </row>
     <row r="492" spans="1:12">
       <c r="A492" s="54" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B492" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C492" s="26"/>
       <c r="D492" s="27"/>
@@ -17427,10 +17431,10 @@
     <row r="494" spans="1:12" ht="38.25" customHeight="1" outlineLevel="1">
       <c r="A494" s="54"/>
       <c r="B494" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C494" s="46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D494" s="27"/>
       <c r="E494" s="113" t="str">
@@ -17457,10 +17461,10 @@
     <row r="495" spans="1:12" outlineLevel="1">
       <c r="A495" s="54"/>
       <c r="B495" s="22" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C495" s="46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D495" s="27"/>
       <c r="E495" s="113" t="str">
@@ -17487,10 +17491,10 @@
     <row r="496" spans="1:12" outlineLevel="1">
       <c r="A496" s="54"/>
       <c r="B496" s="22" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C496" s="46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D496" s="27"/>
       <c r="E496" s="113" t="str">
@@ -17517,10 +17521,10 @@
     <row r="497" spans="1:12" outlineLevel="1">
       <c r="A497" s="54"/>
       <c r="B497" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C497" s="46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D497" s="27"/>
       <c r="E497" s="113" t="str">
@@ -17547,10 +17551,10 @@
     <row r="498" spans="1:12" outlineLevel="1">
       <c r="A498" s="54"/>
       <c r="B498" s="8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C498" s="46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D498" s="27"/>
       <c r="E498" s="113" t="str">
@@ -17577,10 +17581,10 @@
     <row r="499" spans="1:12" outlineLevel="1">
       <c r="A499" s="54"/>
       <c r="B499" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C499" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D499" s="27"/>
       <c r="E499" s="113" t="str">
@@ -17607,10 +17611,10 @@
     <row r="500" spans="1:12" outlineLevel="1">
       <c r="A500" s="54"/>
       <c r="B500" s="22" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C500" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D500" s="27"/>
       <c r="E500" s="113" t="str">
@@ -17637,10 +17641,10 @@
     <row r="501" spans="1:12" outlineLevel="1">
       <c r="A501" s="54"/>
       <c r="B501" s="22" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C501" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D501" s="27"/>
       <c r="E501" s="113" t="str">
@@ -17667,10 +17671,10 @@
     <row r="502" spans="1:12" outlineLevel="1">
       <c r="A502" s="54"/>
       <c r="B502" s="22" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C502" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D502" s="27"/>
       <c r="E502" s="113" t="str">
@@ -17697,10 +17701,10 @@
     <row r="503" spans="1:12" outlineLevel="1">
       <c r="A503" s="54"/>
       <c r="B503" s="22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C503" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D503" s="27"/>
       <c r="E503" s="113" t="str">
@@ -17727,10 +17731,10 @@
     <row r="504" spans="1:12" outlineLevel="1">
       <c r="A504" s="54"/>
       <c r="B504" s="22" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C504" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D504" s="27"/>
       <c r="E504" s="113" t="str">
@@ -17782,10 +17786,10 @@
     </row>
     <row r="506" spans="1:12">
       <c r="A506" s="54" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B506" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C506" s="26"/>
       <c r="D506" s="27"/>
@@ -17839,10 +17843,10 @@
     <row r="508" spans="1:12" outlineLevel="1">
       <c r="A508" s="54"/>
       <c r="B508" s="22" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C508" s="46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D508" s="27"/>
       <c r="E508" s="113" t="str">
@@ -17869,10 +17873,10 @@
     <row r="509" spans="1:12" outlineLevel="1">
       <c r="A509" s="54"/>
       <c r="B509" s="22" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C509" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D509" s="27"/>
       <c r="E509" s="113" t="str">
@@ -17899,10 +17903,10 @@
     <row r="510" spans="1:12" outlineLevel="1">
       <c r="A510" s="54"/>
       <c r="B510" s="22" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C510" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D510" s="27"/>
       <c r="E510" s="113" t="str">
@@ -17929,10 +17933,10 @@
     <row r="511" spans="1:12" outlineLevel="1">
       <c r="A511" s="54"/>
       <c r="B511" s="22" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C511" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D511" s="27"/>
       <c r="E511" s="113" t="str">
@@ -17959,10 +17963,10 @@
     <row r="512" spans="1:12" outlineLevel="1">
       <c r="A512" s="54"/>
       <c r="B512" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C512" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D512" s="27"/>
       <c r="E512" s="113" t="str">
@@ -17989,10 +17993,10 @@
     <row r="513" spans="1:12" outlineLevel="1">
       <c r="A513" s="54"/>
       <c r="B513" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C513" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D513" s="27"/>
       <c r="E513" s="113" t="str">
@@ -18019,10 +18023,10 @@
     <row r="514" spans="1:12" outlineLevel="1">
       <c r="A514" s="54"/>
       <c r="B514" s="22" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C514" s="46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D514" s="27"/>
       <c r="E514" s="113" t="str">
@@ -18049,10 +18053,10 @@
     <row r="515" spans="1:12" outlineLevel="1">
       <c r="A515" s="54"/>
       <c r="B515" s="22" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C515" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D515" s="27"/>
       <c r="E515" s="113" t="str">
@@ -18079,10 +18083,10 @@
     <row r="516" spans="1:12" outlineLevel="1">
       <c r="A516" s="54"/>
       <c r="B516" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C516" s="46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D516" s="27"/>
       <c r="E516" s="113" t="str">
@@ -18109,10 +18113,10 @@
     <row r="517" spans="1:12" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A517" s="54"/>
       <c r="B517" s="8" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C517" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D517" s="27"/>
       <c r="E517" s="113" t="str">
@@ -18139,10 +18143,10 @@
     <row r="518" spans="1:12" outlineLevel="1">
       <c r="A518" s="54"/>
       <c r="B518" s="22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C518" s="46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D518" s="27"/>
       <c r="E518" s="113" t="str">
@@ -18169,10 +18173,10 @@
     <row r="519" spans="1:12" outlineLevel="1">
       <c r="A519" s="54"/>
       <c r="B519" s="22" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C519" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D519" s="27"/>
       <c r="E519" s="113" t="str">
@@ -18199,10 +18203,10 @@
     <row r="520" spans="1:12" outlineLevel="1">
       <c r="A520" s="54"/>
       <c r="B520" s="22" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C520" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D520" s="27"/>
       <c r="E520" s="113" t="str">
@@ -18229,10 +18233,10 @@
     <row r="521" spans="1:12" outlineLevel="1">
       <c r="A521" s="54"/>
       <c r="B521" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C521" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D521" s="27"/>
       <c r="E521" s="113" t="str">
@@ -18259,10 +18263,10 @@
     <row r="522" spans="1:12" outlineLevel="1">
       <c r="A522" s="54"/>
       <c r="B522" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C522" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D522" s="27"/>
       <c r="E522" s="113" t="str">
@@ -18289,10 +18293,10 @@
     <row r="523" spans="1:12" outlineLevel="1">
       <c r="A523" s="54"/>
       <c r="B523" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C523" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D523" s="27"/>
       <c r="E523" s="113" t="str">
@@ -18319,10 +18323,10 @@
     <row r="524" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A524" s="54"/>
       <c r="B524" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C524" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D524" s="27"/>
       <c r="E524" s="113" t="str">
@@ -18349,10 +18353,10 @@
     <row r="525" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A525" s="54"/>
       <c r="B525" s="8" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C525" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D525" s="27"/>
       <c r="E525" s="113" t="str">
@@ -18379,10 +18383,10 @@
     <row r="526" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A526" s="54"/>
       <c r="B526" s="22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C526" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D526" s="27"/>
       <c r="E526" s="113" t="str">
@@ -18409,10 +18413,10 @@
     <row r="527" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A527" s="54"/>
       <c r="B527" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C527" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D527" s="27"/>
       <c r="E527" s="113" t="str">
@@ -18439,10 +18443,10 @@
     <row r="528" spans="1:12" ht="15.75" customHeight="1" outlineLevel="1">
       <c r="A528" s="54"/>
       <c r="B528" s="22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C528" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D528" s="27"/>
       <c r="E528" s="113" t="str">
@@ -18469,10 +18473,10 @@
     <row r="529" spans="1:12" ht="16.5" customHeight="1" outlineLevel="1">
       <c r="A529" s="54"/>
       <c r="B529" s="8" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C529" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D529" s="27"/>
       <c r="E529" s="113" t="str">
@@ -18524,10 +18528,10 @@
     </row>
     <row r="531" spans="1:12">
       <c r="A531" s="54" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B531" s="20" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C531" s="26"/>
       <c r="D531" s="27"/>
@@ -18581,10 +18585,10 @@
     <row r="533" spans="1:12" outlineLevel="1">
       <c r="A533" s="54"/>
       <c r="B533" s="41" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C533" s="26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D533" s="27"/>
       <c r="E533" s="113" t="str">
@@ -18611,10 +18615,10 @@
     <row r="534" spans="1:12" outlineLevel="1">
       <c r="A534" s="54"/>
       <c r="B534" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C534" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D534" s="27"/>
       <c r="E534" s="113" t="str">
@@ -18641,10 +18645,10 @@
     <row r="535" spans="1:12" outlineLevel="1">
       <c r="A535" s="54"/>
       <c r="B535" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C535" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D535" s="27"/>
       <c r="E535" s="113" t="str">
@@ -18671,10 +18675,10 @@
     <row r="536" spans="1:12" outlineLevel="1">
       <c r="A536" s="54"/>
       <c r="B536" s="41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C536" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D536" s="27"/>
       <c r="E536" s="113" t="str">
@@ -18701,10 +18705,10 @@
     <row r="537" spans="1:12" outlineLevel="1">
       <c r="A537" s="54"/>
       <c r="B537" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C537" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D537" s="27"/>
       <c r="E537" s="113" t="str">
@@ -18731,7 +18735,7 @@
     <row r="538" spans="1:12" outlineLevel="1">
       <c r="A538" s="54"/>
       <c r="B538" s="42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C538" s="26"/>
       <c r="D538" s="27"/>
@@ -18784,10 +18788,10 @@
     </row>
     <row r="540" spans="1:12">
       <c r="A540" s="54" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B540" s="20" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C540" s="26"/>
       <c r="D540" s="27"/>
@@ -18841,10 +18845,10 @@
     <row r="542" spans="1:12" outlineLevel="1">
       <c r="A542" s="54"/>
       <c r="B542" s="41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C542" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D542" s="27"/>
       <c r="E542" s="113" t="str">
@@ -18871,10 +18875,10 @@
     <row r="543" spans="1:12" outlineLevel="1">
       <c r="A543" s="54"/>
       <c r="B543" s="41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C543" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D543" s="27"/>
       <c r="E543" s="113" t="str">
@@ -18901,10 +18905,10 @@
     <row r="544" spans="1:12" outlineLevel="1">
       <c r="A544" s="54"/>
       <c r="B544" s="41" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C544" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D544" s="27"/>
       <c r="E544" s="113" t="str">
@@ -18931,10 +18935,10 @@
     <row r="545" spans="1:12" outlineLevel="1">
       <c r="A545" s="54"/>
       <c r="B545" s="41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C545" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D545" s="27"/>
       <c r="E545" s="113" t="str">
@@ -18961,10 +18965,10 @@
     <row r="546" spans="1:12" outlineLevel="1">
       <c r="A546" s="54"/>
       <c r="B546" s="41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C546" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D546" s="27"/>
       <c r="E546" s="113" t="str">
@@ -18991,7 +18995,7 @@
     <row r="547" spans="1:12" outlineLevel="1">
       <c r="A547" s="54"/>
       <c r="B547" s="42" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C547" s="26"/>
       <c r="D547" s="27"/>
@@ -19044,10 +19048,10 @@
     </row>
     <row r="549" spans="1:12">
       <c r="A549" s="54" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B549" s="76" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C549" s="26"/>
       <c r="D549" s="27"/>
@@ -19101,10 +19105,10 @@
     <row r="551" spans="1:12" outlineLevel="1">
       <c r="A551" s="54"/>
       <c r="B551" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C551" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D551" s="27"/>
       <c r="E551" s="113" t="str">
@@ -19131,10 +19135,10 @@
     <row r="552" spans="1:12" outlineLevel="1">
       <c r="A552" s="54"/>
       <c r="B552" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C552" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D552" s="27"/>
       <c r="E552" s="113" t="str">
@@ -19161,10 +19165,10 @@
     <row r="553" spans="1:12" outlineLevel="1">
       <c r="A553" s="54"/>
       <c r="B553" s="22" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C553" s="46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D553" s="27"/>
       <c r="E553" s="113" t="str">
@@ -19191,10 +19195,10 @@
     <row r="554" spans="1:12" outlineLevel="1">
       <c r="A554" s="54"/>
       <c r="B554" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C554" s="46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D554" s="27"/>
       <c r="E554" s="113" t="str">
@@ -19221,10 +19225,10 @@
     <row r="555" spans="1:12" outlineLevel="1">
       <c r="A555" s="54"/>
       <c r="B555" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C555" s="46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D555" s="27"/>
       <c r="E555" s="113" t="str">
@@ -19251,10 +19255,10 @@
     <row r="556" spans="1:12" outlineLevel="1">
       <c r="A556" s="54"/>
       <c r="B556" s="22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C556" s="46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D556" s="27"/>
       <c r="E556" s="113" t="str">
@@ -19281,10 +19285,10 @@
     <row r="557" spans="1:12" outlineLevel="1">
       <c r="A557" s="54"/>
       <c r="B557" s="22" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C557" s="46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D557" s="27"/>
       <c r="E557" s="113" t="str">
@@ -19311,10 +19315,10 @@
     <row r="558" spans="1:12" outlineLevel="1">
       <c r="A558" s="54"/>
       <c r="B558" s="22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C558" s="46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D558" s="27"/>
       <c r="E558" s="113" t="str">
@@ -19341,10 +19345,10 @@
     <row r="559" spans="1:12" outlineLevel="1">
       <c r="A559" s="54"/>
       <c r="B559" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C559" s="46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D559" s="27"/>
       <c r="E559" s="113" t="str">
@@ -19371,10 +19375,10 @@
     <row r="560" spans="1:12" outlineLevel="1">
       <c r="A560" s="54"/>
       <c r="B560" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C560" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D560" s="27"/>
       <c r="E560" s="113" t="str">
@@ -19401,10 +19405,10 @@
     <row r="561" spans="1:12" outlineLevel="1">
       <c r="A561" s="54"/>
       <c r="B561" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C561" s="46" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D561" s="27"/>
       <c r="E561" s="113" t="str">
@@ -19431,10 +19435,10 @@
     <row r="562" spans="1:12" outlineLevel="1">
       <c r="A562" s="54"/>
       <c r="B562" s="22" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C562" s="46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D562" s="27"/>
       <c r="E562" s="113" t="str">
@@ -19461,10 +19465,10 @@
     <row r="563" spans="1:12" outlineLevel="1">
       <c r="A563" s="54"/>
       <c r="B563" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C563" s="46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D563" s="27"/>
       <c r="E563" s="113" t="str">
@@ -19491,10 +19495,10 @@
     <row r="564" spans="1:12" outlineLevel="1">
       <c r="A564" s="54"/>
       <c r="B564" s="22" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C564" s="46" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D564" s="27"/>
       <c r="E564" s="113" t="str">
@@ -19521,10 +19525,10 @@
     <row r="565" spans="1:12" outlineLevel="1">
       <c r="A565" s="54"/>
       <c r="B565" s="8" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C565" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D565" s="27"/>
       <c r="E565" s="113" t="str">
@@ -19551,7 +19555,7 @@
     <row r="566" spans="1:12" outlineLevel="1">
       <c r="A566" s="54"/>
       <c r="B566" s="22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C566" s="46"/>
       <c r="D566" s="27"/>
@@ -19604,10 +19608,10 @@
     </row>
     <row r="568" spans="1:12">
       <c r="A568" s="54" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B568" s="76" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C568" s="26"/>
       <c r="D568" s="27"/>
@@ -19661,10 +19665,10 @@
     <row r="570" spans="1:12" outlineLevel="1">
       <c r="A570" s="54"/>
       <c r="B570" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C570" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D570" s="27"/>
       <c r="E570" s="113" t="str">
@@ -19691,10 +19695,10 @@
     <row r="571" spans="1:12" outlineLevel="1">
       <c r="A571" s="54"/>
       <c r="B571" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C571" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D571" s="27"/>
       <c r="E571" s="113" t="str">
@@ -19721,10 +19725,10 @@
     <row r="572" spans="1:12" outlineLevel="1">
       <c r="A572" s="54"/>
       <c r="B572" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C572" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D572" s="27"/>
       <c r="E572" s="113" t="str">
@@ -19751,10 +19755,10 @@
     <row r="573" spans="1:12" outlineLevel="1">
       <c r="A573" s="54"/>
       <c r="B573" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C573" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D573" s="27"/>
       <c r="E573" s="113" t="str">
@@ -19807,10 +19811,10 @@
     <row r="575" spans="1:12" outlineLevel="1">
       <c r="A575" s="54"/>
       <c r="B575" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C575" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D575" s="27"/>
       <c r="E575" s="113" t="str">
@@ -19837,10 +19841,10 @@
     <row r="576" spans="1:12" outlineLevel="1">
       <c r="A576" s="54"/>
       <c r="B576" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C576" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D576" s="27"/>
       <c r="E576" s="113" t="str">
@@ -19867,10 +19871,10 @@
     <row r="577" spans="1:12" outlineLevel="1">
       <c r="A577" s="54"/>
       <c r="B577" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C577" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D577" s="27"/>
       <c r="E577" s="113" t="str">
@@ -19897,10 +19901,10 @@
     <row r="578" spans="1:12" outlineLevel="1">
       <c r="A578" s="54"/>
       <c r="B578" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C578" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D578" s="27"/>
       <c r="E578" s="113" t="str">
@@ -19952,10 +19956,10 @@
     </row>
     <row r="580" spans="1:12">
       <c r="A580" s="54" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B580" s="76" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C580" s="26"/>
       <c r="D580" s="27"/>
@@ -20009,10 +20013,10 @@
     <row r="582" spans="1:12" outlineLevel="1">
       <c r="A582" s="54"/>
       <c r="B582" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C582" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D582" s="27"/>
       <c r="E582" s="113" t="str">
@@ -20039,10 +20043,10 @@
     <row r="583" spans="1:12" outlineLevel="1">
       <c r="A583" s="54"/>
       <c r="B583" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C583" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D583" s="27"/>
       <c r="E583" s="113" t="str">
@@ -20069,10 +20073,10 @@
     <row r="584" spans="1:12" outlineLevel="1">
       <c r="A584" s="54"/>
       <c r="B584" s="8" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C584" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D584" s="27"/>
       <c r="E584" s="113" t="str">
@@ -20099,10 +20103,10 @@
     <row r="585" spans="1:12" outlineLevel="1">
       <c r="A585" s="54"/>
       <c r="B585" s="8" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="C585" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D585" s="27"/>
       <c r="E585" s="113" t="str">
@@ -20155,10 +20159,10 @@
     <row r="587" spans="1:12" outlineLevel="1">
       <c r="A587" s="54"/>
       <c r="B587" s="8" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="C587" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D587" s="27"/>
       <c r="E587" s="113" t="str">
@@ -20185,10 +20189,10 @@
     <row r="588" spans="1:12" outlineLevel="1">
       <c r="A588" s="54"/>
       <c r="B588" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C588" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D588" s="27"/>
       <c r="E588" s="113" t="str">
@@ -20215,10 +20219,10 @@
     <row r="589" spans="1:12" outlineLevel="1">
       <c r="A589" s="54"/>
       <c r="B589" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C589" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D589" s="27"/>
       <c r="E589" s="113" t="str">
@@ -20245,10 +20249,10 @@
     <row r="590" spans="1:12" outlineLevel="1">
       <c r="A590" s="54"/>
       <c r="B590" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C590" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D590" s="27"/>
       <c r="E590" s="113" t="str">
@@ -20300,10 +20304,10 @@
     </row>
     <row r="592" spans="1:12">
       <c r="A592" s="54" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B592" s="21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C592" s="26"/>
       <c r="D592" s="27"/>
@@ -20357,10 +20361,10 @@
     <row r="594" spans="1:12" outlineLevel="1">
       <c r="A594" s="54"/>
       <c r="B594" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C594" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D594" s="27"/>
       <c r="E594" s="113" t="str">
@@ -20387,10 +20391,10 @@
     <row r="595" spans="1:12" outlineLevel="1">
       <c r="A595" s="54"/>
       <c r="B595" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C595" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D595" s="27"/>
       <c r="E595" s="113" t="str">
@@ -20417,10 +20421,10 @@
     <row r="596" spans="1:12" outlineLevel="1">
       <c r="A596" s="54"/>
       <c r="B596" s="8" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C596" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D596" s="27"/>
       <c r="E596" s="113" t="str">
@@ -20447,10 +20451,10 @@
     <row r="597" spans="1:12" outlineLevel="1">
       <c r="A597" s="54"/>
       <c r="B597" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C597" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D597" s="27"/>
       <c r="E597" s="113" t="str">
@@ -20503,10 +20507,10 @@
     <row r="599" spans="1:12" outlineLevel="1">
       <c r="A599" s="54"/>
       <c r="B599" s="8" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C599" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D599" s="27"/>
       <c r="E599" s="113" t="str">
@@ -20533,10 +20537,10 @@
     <row r="600" spans="1:12" outlineLevel="1">
       <c r="A600" s="54"/>
       <c r="B600" s="8" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C600" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D600" s="27"/>
       <c r="E600" s="113" t="str">
@@ -20563,10 +20567,10 @@
     <row r="601" spans="1:12" outlineLevel="1">
       <c r="A601" s="54"/>
       <c r="B601" s="8" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C601" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D601" s="27"/>
       <c r="E601" s="113" t="str">
@@ -20619,10 +20623,10 @@
     <row r="603" spans="1:12" ht="31" outlineLevel="1">
       <c r="A603" s="54"/>
       <c r="B603" s="8" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="C603" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D603" s="27"/>
       <c r="E603" s="113" t="str">
@@ -20674,10 +20678,10 @@
     </row>
     <row r="605" spans="1:12">
       <c r="A605" s="54" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B605" s="21" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C605" s="26"/>
       <c r="D605" s="27"/>
@@ -20731,10 +20735,10 @@
     <row r="607" spans="1:12" outlineLevel="1">
       <c r="A607" s="54"/>
       <c r="B607" s="8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C607" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D607" s="27"/>
       <c r="E607" s="113" t="str">
@@ -20761,10 +20765,10 @@
     <row r="608" spans="1:12" outlineLevel="1">
       <c r="A608" s="54"/>
       <c r="B608" s="8" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C608" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D608" s="27"/>
       <c r="E608" s="113" t="str">
@@ -20791,10 +20795,10 @@
     <row r="609" spans="1:12" outlineLevel="1">
       <c r="A609" s="54"/>
       <c r="B609" s="8" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C609" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D609" s="27"/>
       <c r="E609" s="113" t="str">
@@ -20821,10 +20825,10 @@
     <row r="610" spans="1:12" outlineLevel="1">
       <c r="A610" s="54"/>
       <c r="B610" s="8" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C610" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D610" s="27"/>
       <c r="E610" s="113" t="str">
@@ -20851,10 +20855,10 @@
     <row r="611" spans="1:12" outlineLevel="1">
       <c r="A611" s="54"/>
       <c r="B611" s="8" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C611" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D611" s="27"/>
       <c r="E611" s="113" t="str">
@@ -20881,10 +20885,10 @@
     <row r="612" spans="1:12" outlineLevel="1">
       <c r="A612" s="54"/>
       <c r="B612" s="8" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C612" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D612" s="27"/>
       <c r="E612" s="113" t="str">
@@ -20911,10 +20915,10 @@
     <row r="613" spans="1:12" outlineLevel="1">
       <c r="A613" s="54"/>
       <c r="B613" s="8" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C613" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D613" s="27"/>
       <c r="E613" s="113" t="str">
@@ -20941,10 +20945,10 @@
     <row r="614" spans="1:12" outlineLevel="1">
       <c r="A614" s="54"/>
       <c r="B614" s="8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C614" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D614" s="27"/>
       <c r="E614" s="113" t="str">
@@ -20971,10 +20975,10 @@
     <row r="615" spans="1:12" outlineLevel="1">
       <c r="A615" s="54"/>
       <c r="B615" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C615" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D615" s="27"/>
       <c r="E615" s="113" t="str">
@@ -21001,10 +21005,10 @@
     <row r="616" spans="1:12" outlineLevel="1">
       <c r="A616" s="54"/>
       <c r="B616" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C616" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D616" s="27"/>
       <c r="E616" s="113" t="str">
@@ -21031,10 +21035,10 @@
     <row r="617" spans="1:12" outlineLevel="1">
       <c r="A617" s="54"/>
       <c r="B617" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C617" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D617" s="27"/>
       <c r="E617" s="113" t="str">
@@ -21061,10 +21065,10 @@
     <row r="618" spans="1:12" outlineLevel="1">
       <c r="A618" s="54"/>
       <c r="B618" s="8" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C618" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D618" s="27"/>
       <c r="E618" s="113" t="str">
@@ -21091,10 +21095,10 @@
     <row r="619" spans="1:12" outlineLevel="1">
       <c r="A619" s="54"/>
       <c r="B619" s="8" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C619" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D619" s="27"/>
       <c r="E619" s="113" t="str">
@@ -21146,10 +21150,10 @@
     </row>
     <row r="621" spans="1:12">
       <c r="A621" s="54" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B621" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C621" s="26"/>
       <c r="D621" s="27"/>
@@ -21203,10 +21207,10 @@
     <row r="623" spans="1:12" outlineLevel="1">
       <c r="A623" s="54"/>
       <c r="B623" s="8" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C623" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D623" s="27"/>
       <c r="E623" s="113" t="str">
@@ -21233,10 +21237,10 @@
     <row r="624" spans="1:12" outlineLevel="1">
       <c r="A624" s="54"/>
       <c r="B624" s="8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C624" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D624" s="27"/>
       <c r="E624" s="113" t="str">
@@ -21288,10 +21292,10 @@
     </row>
     <row r="626" spans="1:12">
       <c r="A626" s="54" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B626" s="21" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C626" s="26"/>
       <c r="D626" s="27"/>
@@ -21345,10 +21349,10 @@
     <row r="628" spans="1:12" outlineLevel="1">
       <c r="A628" s="54"/>
       <c r="B628" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C628" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D628" s="27"/>
       <c r="E628" s="113" t="str">
@@ -21375,10 +21379,10 @@
     <row r="629" spans="1:12" outlineLevel="1">
       <c r="A629" s="54"/>
       <c r="B629" s="8" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C629" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D629" s="27"/>
       <c r="E629" s="113" t="str">
@@ -21405,10 +21409,10 @@
     <row r="630" spans="1:12" outlineLevel="1">
       <c r="A630" s="54"/>
       <c r="B630" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C630" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D630" s="27"/>
       <c r="E630" s="113" t="str">
@@ -21435,10 +21439,10 @@
     <row r="631" spans="1:12" outlineLevel="1">
       <c r="A631" s="54"/>
       <c r="B631" s="8" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C631" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D631" s="27"/>
       <c r="E631" s="113" t="str">
@@ -21465,10 +21469,10 @@
     <row r="632" spans="1:12" outlineLevel="1">
       <c r="A632" s="54"/>
       <c r="B632" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C632" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D632" s="27"/>
       <c r="E632" s="113" t="str">
@@ -21495,10 +21499,10 @@
     <row r="633" spans="1:12" outlineLevel="1">
       <c r="A633" s="54"/>
       <c r="B633" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C633" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D633" s="27"/>
       <c r="E633" s="113" t="str">
@@ -21525,10 +21529,10 @@
     <row r="634" spans="1:12" outlineLevel="1">
       <c r="A634" s="54"/>
       <c r="B634" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C634" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D634" s="27"/>
       <c r="E634" s="113" t="str">
@@ -21580,10 +21584,10 @@
     </row>
     <row r="636" spans="1:12">
       <c r="A636" s="54" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B636" s="21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C636" s="26"/>
       <c r="D636" s="27"/>
@@ -21637,10 +21641,10 @@
     <row r="638" spans="1:12" outlineLevel="1">
       <c r="A638" s="54"/>
       <c r="B638" s="8" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C638" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D638" s="27"/>
       <c r="E638" s="113" t="str">
@@ -21667,10 +21671,10 @@
     <row r="639" spans="1:12" outlineLevel="1">
       <c r="A639" s="54"/>
       <c r="B639" s="8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C639" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D639" s="27"/>
       <c r="E639" s="113" t="str">
@@ -21697,10 +21701,10 @@
     <row r="640" spans="1:12" outlineLevel="1">
       <c r="A640" s="54"/>
       <c r="B640" s="8" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C640" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D640" s="27"/>
       <c r="E640" s="113" t="str">
@@ -21727,10 +21731,10 @@
     <row r="641" spans="1:12" outlineLevel="1">
       <c r="A641" s="54"/>
       <c r="B641" s="8" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="C641" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D641" s="27"/>
       <c r="E641" s="113" t="str">
@@ -21757,10 +21761,10 @@
     <row r="642" spans="1:12" outlineLevel="1">
       <c r="A642" s="54"/>
       <c r="B642" s="8" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C642" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D642" s="27"/>
       <c r="E642" s="113" t="str">
@@ -21787,10 +21791,10 @@
     <row r="643" spans="1:12" outlineLevel="1">
       <c r="A643" s="54"/>
       <c r="B643" s="8" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C643" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D643" s="27"/>
       <c r="E643" s="113" t="str">
@@ -21817,10 +21821,10 @@
     <row r="644" spans="1:12" outlineLevel="1">
       <c r="A644" s="54"/>
       <c r="B644" s="8" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C644" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D644" s="27"/>
       <c r="E644" s="113" t="str">
@@ -21847,10 +21851,10 @@
     <row r="645" spans="1:12" outlineLevel="1">
       <c r="A645" s="54"/>
       <c r="B645" s="8" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C645" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D645" s="27"/>
       <c r="E645" s="113" t="str">
@@ -21877,10 +21881,10 @@
     <row r="646" spans="1:12" outlineLevel="1">
       <c r="A646" s="54"/>
       <c r="B646" s="8" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C646" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D646" s="27"/>
       <c r="E646" s="113" t="str">
@@ -21933,10 +21937,10 @@
     <row r="648" spans="1:12" outlineLevel="1">
       <c r="A648" s="54"/>
       <c r="B648" s="8" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C648" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D648" s="27"/>
       <c r="E648" s="113" t="str">
@@ -21963,10 +21967,10 @@
     <row r="649" spans="1:12" outlineLevel="1">
       <c r="A649" s="54"/>
       <c r="B649" s="8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C649" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D649" s="27"/>
       <c r="E649" s="113" t="str">
@@ -21993,10 +21997,10 @@
     <row r="650" spans="1:12" outlineLevel="1">
       <c r="A650" s="54"/>
       <c r="B650" s="8" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C650" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D650" s="27"/>
       <c r="E650" s="113" t="str">
@@ -22023,10 +22027,10 @@
     <row r="651" spans="1:12" outlineLevel="1">
       <c r="A651" s="54"/>
       <c r="B651" s="8" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C651" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D651" s="27"/>
       <c r="E651" s="113" t="str">
@@ -22079,10 +22083,10 @@
     <row r="653" spans="1:12" outlineLevel="1">
       <c r="A653" s="54"/>
       <c r="B653" s="8" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C653" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D653" s="27"/>
       <c r="E653" s="113" t="str">
@@ -22109,10 +22113,10 @@
     <row r="654" spans="1:12" outlineLevel="1">
       <c r="A654" s="54"/>
       <c r="B654" s="8" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="C654" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D654" s="27"/>
       <c r="E654" s="113" t="str">
@@ -22139,10 +22143,10 @@
     <row r="655" spans="1:12" outlineLevel="1">
       <c r="A655" s="54"/>
       <c r="B655" s="8" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C655" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D655" s="27"/>
       <c r="E655" s="113" t="str">
@@ -22169,10 +22173,10 @@
     <row r="656" spans="1:12" outlineLevel="1">
       <c r="A656" s="54"/>
       <c r="B656" s="8" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C656" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D656" s="27"/>
       <c r="E656" s="113" t="str">
@@ -22199,10 +22203,10 @@
     <row r="657" spans="1:12" outlineLevel="1">
       <c r="A657" s="54"/>
       <c r="B657" s="8" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C657" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D657" s="27"/>
       <c r="E657" s="113" t="str">
@@ -22229,10 +22233,10 @@
     <row r="658" spans="1:12" outlineLevel="1">
       <c r="A658" s="54"/>
       <c r="B658" s="8" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C658" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D658" s="27"/>
       <c r="E658" s="113" t="str">
@@ -22284,10 +22288,10 @@
     </row>
     <row r="660" spans="1:12">
       <c r="A660" s="54" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B660" s="76" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C660" s="26"/>
       <c r="D660" s="27"/>
@@ -22341,10 +22345,10 @@
     <row r="662" spans="1:12" outlineLevel="1">
       <c r="A662" s="54"/>
       <c r="B662" s="22" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C662" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D662" s="27"/>
       <c r="E662" s="113" t="str">
@@ -22371,10 +22375,10 @@
     <row r="663" spans="1:12" outlineLevel="1">
       <c r="A663" s="54"/>
       <c r="B663" s="22" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C663" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D663" s="27"/>
       <c r="E663" s="113" t="str">
@@ -22401,10 +22405,10 @@
     <row r="664" spans="1:12" outlineLevel="1">
       <c r="A664" s="54"/>
       <c r="B664" s="22" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C664" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D664" s="27"/>
       <c r="E664" s="113" t="str">
@@ -22431,10 +22435,10 @@
     <row r="665" spans="1:12" outlineLevel="1">
       <c r="A665" s="54"/>
       <c r="B665" s="22" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="C665" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D665" s="27"/>
       <c r="E665" s="113" t="str">
@@ -22461,10 +22465,10 @@
     <row r="666" spans="1:12" outlineLevel="1">
       <c r="A666" s="54"/>
       <c r="B666" s="22" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C666" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D666" s="27"/>
       <c r="E666" s="113" t="str">
@@ -22491,10 +22495,10 @@
     <row r="667" spans="1:12" outlineLevel="1">
       <c r="A667" s="54"/>
       <c r="B667" s="22" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="C667" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D667" s="27"/>
       <c r="E667" s="113" t="str">
@@ -22521,10 +22525,10 @@
     <row r="668" spans="1:12" outlineLevel="1">
       <c r="A668" s="54"/>
       <c r="B668" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C668" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D668" s="27"/>
       <c r="E668" s="113" t="str">
@@ -22551,10 +22555,10 @@
     <row r="669" spans="1:12" outlineLevel="1">
       <c r="A669" s="54"/>
       <c r="B669" s="22" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="C669" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D669" s="27"/>
       <c r="E669" s="113" t="str">
@@ -22581,10 +22585,10 @@
     <row r="670" spans="1:12" outlineLevel="1">
       <c r="A670" s="54"/>
       <c r="B670" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C670" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D670" s="27"/>
       <c r="E670" s="113" t="str">
@@ -22611,10 +22615,10 @@
     <row r="671" spans="1:12" outlineLevel="1">
       <c r="A671" s="54"/>
       <c r="B671" s="22" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C671" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D671" s="27"/>
       <c r="E671" s="113" t="str">
@@ -22641,10 +22645,10 @@
     <row r="672" spans="1:12" outlineLevel="1">
       <c r="A672" s="54"/>
       <c r="B672" s="22" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="C672" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D672" s="27"/>
       <c r="E672" s="113" t="str">
@@ -22671,10 +22675,10 @@
     <row r="673" spans="1:12" outlineLevel="1">
       <c r="A673" s="54"/>
       <c r="B673" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="C673" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D673" s="27"/>
       <c r="E673" s="113" t="str">
@@ -22701,10 +22705,10 @@
     <row r="674" spans="1:12" outlineLevel="1">
       <c r="A674" s="54"/>
       <c r="B674" s="22" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C674" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D674" s="27"/>
       <c r="E674" s="113" t="str">
@@ -22731,10 +22735,10 @@
     <row r="675" spans="1:12" outlineLevel="1">
       <c r="A675" s="54"/>
       <c r="B675" s="22" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C675" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D675" s="27"/>
       <c r="E675" s="113" t="str">
@@ -22761,10 +22765,10 @@
     <row r="676" spans="1:12" outlineLevel="1">
       <c r="A676" s="54"/>
       <c r="B676" s="22" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C676" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D676" s="27"/>
       <c r="E676" s="113" t="str">
@@ -22791,10 +22795,10 @@
     <row r="677" spans="1:12" outlineLevel="1">
       <c r="A677" s="54"/>
       <c r="B677" s="22" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="C677" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D677" s="27"/>
       <c r="E677" s="113" t="str">
@@ -22821,10 +22825,10 @@
     <row r="678" spans="1:12" outlineLevel="1">
       <c r="A678" s="54"/>
       <c r="B678" s="22" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C678" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D678" s="27"/>
       <c r="E678" s="113" t="str">
@@ -22851,10 +22855,10 @@
     <row r="679" spans="1:12" outlineLevel="1">
       <c r="A679" s="54"/>
       <c r="B679" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C679" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D679" s="27"/>
       <c r="E679" s="113" t="str">
@@ -22881,10 +22885,10 @@
     <row r="680" spans="1:12" outlineLevel="1">
       <c r="A680" s="54"/>
       <c r="B680" s="22" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C680" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D680" s="27"/>
       <c r="E680" s="113" t="str">
@@ -22911,10 +22915,10 @@
     <row r="681" spans="1:12" outlineLevel="1">
       <c r="A681" s="54"/>
       <c r="B681" s="22" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C681" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D681" s="27"/>
       <c r="E681" s="113" t="str">
@@ -22941,10 +22945,10 @@
     <row r="682" spans="1:12" outlineLevel="1">
       <c r="A682" s="54"/>
       <c r="B682" s="22" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C682" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D682" s="27"/>
       <c r="E682" s="113" t="str">
@@ -22971,10 +22975,10 @@
     <row r="683" spans="1:12" outlineLevel="1">
       <c r="A683" s="54"/>
       <c r="B683" s="8" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C683" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D683" s="27"/>
       <c r="E683" s="113" t="str">
@@ -23026,10 +23030,10 @@
     </row>
     <row r="685" spans="1:12">
       <c r="A685" s="54" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B685" s="76" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C685" s="26"/>
       <c r="D685" s="27"/>
@@ -23083,10 +23087,10 @@
     <row r="687" spans="1:12" outlineLevel="1">
       <c r="A687" s="54"/>
       <c r="B687" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C687" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D687" s="27"/>
       <c r="E687" s="113" t="str">
@@ -23113,10 +23117,10 @@
     <row r="688" spans="1:12" outlineLevel="1">
       <c r="A688" s="54"/>
       <c r="B688" s="8" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="C688" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D688" s="27"/>
       <c r="E688" s="113" t="str">
@@ -23143,10 +23147,10 @@
     <row r="689" spans="1:12" outlineLevel="1">
       <c r="A689" s="54"/>
       <c r="B689" s="8" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C689" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D689" s="27"/>
       <c r="E689" s="113" t="str">
@@ -23173,10 +23177,10 @@
     <row r="690" spans="1:12" outlineLevel="1">
       <c r="A690" s="54"/>
       <c r="B690" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C690" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D690" s="27"/>
       <c r="E690" s="113" t="str">
@@ -23203,10 +23207,10 @@
     <row r="691" spans="1:12" outlineLevel="1">
       <c r="A691" s="54"/>
       <c r="B691" s="22" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C691" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D691" s="27"/>
       <c r="E691" s="113" t="str">
@@ -23233,10 +23237,10 @@
     <row r="692" spans="1:12" outlineLevel="1">
       <c r="A692" s="54"/>
       <c r="B692" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C692" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D692" s="27"/>
       <c r="E692" s="113" t="str">
@@ -23288,10 +23292,10 @@
     </row>
     <row r="694" spans="1:12">
       <c r="A694" s="54" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B694" s="21" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C694" s="26"/>
       <c r="D694" s="27"/>
@@ -23345,10 +23349,10 @@
     <row r="696" spans="1:12" outlineLevel="1">
       <c r="A696" s="54"/>
       <c r="B696" s="8" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C696" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D696" s="27"/>
       <c r="E696" s="113" t="str">
@@ -23375,10 +23379,10 @@
     <row r="697" spans="1:12" outlineLevel="1">
       <c r="A697" s="54"/>
       <c r="B697" s="8" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C697" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D697" s="27"/>
       <c r="E697" s="113" t="str">
@@ -23405,10 +23409,10 @@
     <row r="698" spans="1:12" outlineLevel="1">
       <c r="A698" s="54"/>
       <c r="B698" s="8" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C698" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D698" s="27"/>
       <c r="E698" s="113" t="str">
@@ -23435,10 +23439,10 @@
     <row r="699" spans="1:12" outlineLevel="1">
       <c r="A699" s="54"/>
       <c r="B699" s="8" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C699" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D699" s="27"/>
       <c r="E699" s="113" t="str">
@@ -23465,10 +23469,10 @@
     <row r="700" spans="1:12" outlineLevel="1">
       <c r="A700" s="54"/>
       <c r="B700" s="8" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C700" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D700" s="27"/>
       <c r="E700" s="113" t="str">
@@ -23495,10 +23499,10 @@
     <row r="701" spans="1:12" outlineLevel="1">
       <c r="A701" s="54"/>
       <c r="B701" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C701" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D701" s="27"/>
       <c r="E701" s="113" t="str">
@@ -23525,10 +23529,10 @@
     <row r="702" spans="1:12" ht="31" outlineLevel="1">
       <c r="A702" s="54"/>
       <c r="B702" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C702" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D702" s="27"/>
       <c r="E702" s="113" t="str">
@@ -23555,10 +23559,10 @@
     <row r="703" spans="1:12" outlineLevel="1">
       <c r="A703" s="54"/>
       <c r="B703" s="8" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C703" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D703" s="27"/>
       <c r="E703" s="113" t="str">
@@ -23585,10 +23589,10 @@
     <row r="704" spans="1:12" outlineLevel="1">
       <c r="A704" s="54"/>
       <c r="B704" s="8" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C704" s="26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D704" s="27"/>
       <c r="E704" s="113" t="str">
@@ -23615,10 +23619,10 @@
     <row r="705" spans="1:12" outlineLevel="1">
       <c r="A705" s="54"/>
       <c r="B705" s="8" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C705" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D705" s="27"/>
       <c r="E705" s="113" t="str">
@@ -23645,10 +23649,10 @@
     <row r="706" spans="1:12" outlineLevel="1">
       <c r="A706" s="54"/>
       <c r="B706" s="8" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C706" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D706" s="27"/>
       <c r="E706" s="113" t="str">
@@ -23700,10 +23704,10 @@
     </row>
     <row r="708" spans="1:12">
       <c r="A708" s="54" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B708" s="76" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C708" s="26"/>
       <c r="D708" s="27"/>
@@ -23757,10 +23761,10 @@
     <row r="710" spans="1:12" outlineLevel="1">
       <c r="A710" s="54"/>
       <c r="B710" s="33" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C710" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D710" s="27"/>
       <c r="E710" s="113" t="str">
@@ -23787,10 +23791,10 @@
     <row r="711" spans="1:12" outlineLevel="1">
       <c r="A711" s="54"/>
       <c r="B711" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C711" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D711" s="27"/>
       <c r="E711" s="113" t="str">
@@ -23817,10 +23821,10 @@
     <row r="712" spans="1:12" outlineLevel="1">
       <c r="A712" s="54"/>
       <c r="B712" s="8" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C712" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D712" s="27"/>
       <c r="E712" s="113" t="str">
@@ -23847,10 +23851,10 @@
     <row r="713" spans="1:12" outlineLevel="1">
       <c r="A713" s="54"/>
       <c r="B713" s="8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C713" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D713" s="27"/>
       <c r="E713" s="113" t="str">
@@ -23877,10 +23881,10 @@
     <row r="714" spans="1:12" outlineLevel="1">
       <c r="A714" s="54"/>
       <c r="B714" s="8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C714" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D714" s="27"/>
       <c r="E714" s="113" t="str">
@@ -23907,10 +23911,10 @@
     <row r="715" spans="1:12" outlineLevel="1">
       <c r="A715" s="54"/>
       <c r="B715" s="8" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C715" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D715" s="27"/>
       <c r="E715" s="113" t="str">
@@ -23963,10 +23967,10 @@
     <row r="717" spans="1:12" outlineLevel="1">
       <c r="A717" s="54"/>
       <c r="B717" s="33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C717" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D717" s="27"/>
       <c r="E717" s="113" t="str">
@@ -23993,10 +23997,10 @@
     <row r="718" spans="1:12" outlineLevel="1">
       <c r="A718" s="54"/>
       <c r="B718" s="8" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C718" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D718" s="27"/>
       <c r="E718" s="113" t="str">
@@ -24023,10 +24027,10 @@
     <row r="719" spans="1:12" outlineLevel="1">
       <c r="A719" s="54"/>
       <c r="B719" s="8" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C719" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D719" s="27"/>
       <c r="E719" s="113" t="str">
@@ -24053,10 +24057,10 @@
     <row r="720" spans="1:12" outlineLevel="1">
       <c r="A720" s="54"/>
       <c r="B720" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C720" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D720" s="27"/>
       <c r="E720" s="113" t="str">
@@ -24083,10 +24087,10 @@
     <row r="721" spans="1:12" outlineLevel="1">
       <c r="A721" s="54"/>
       <c r="B721" s="8" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C721" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D721" s="27"/>
       <c r="E721" s="113" t="str">
@@ -24138,10 +24142,10 @@
     </row>
     <row r="723" spans="1:12">
       <c r="A723" s="54" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B723" s="76" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C723" s="26"/>
       <c r="D723" s="27"/>
@@ -24195,10 +24199,10 @@
     <row r="725" spans="1:12" outlineLevel="1">
       <c r="A725" s="54"/>
       <c r="B725" s="8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C725" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D725" s="27"/>
       <c r="E725" s="113" t="str">
@@ -24225,10 +24229,10 @@
     <row r="726" spans="1:12" outlineLevel="1">
       <c r="A726" s="54"/>
       <c r="B726" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C726" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D726" s="27"/>
       <c r="E726" s="113" t="str">
@@ -24255,10 +24259,10 @@
     <row r="727" spans="1:12" outlineLevel="1">
       <c r="A727" s="54"/>
       <c r="B727" s="8" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C727" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D727" s="27"/>
       <c r="E727" s="113" t="str">
@@ -24285,10 +24289,10 @@
     <row r="728" spans="1:12" outlineLevel="1">
       <c r="A728" s="54"/>
       <c r="B728" s="8" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C728" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D728" s="27"/>
       <c r="E728" s="113" t="str">
@@ -24315,10 +24319,10 @@
     <row r="729" spans="1:12" outlineLevel="1">
       <c r="A729" s="54"/>
       <c r="B729" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C729" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D729" s="27"/>
       <c r="E729" s="113" t="str">
@@ -24370,10 +24374,10 @@
     </row>
     <row r="731" spans="1:12">
       <c r="A731" s="54" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B731" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C731" s="26"/>
       <c r="D731" s="27"/>
@@ -24427,10 +24431,10 @@
     <row r="733" spans="1:12" outlineLevel="1">
       <c r="A733" s="54"/>
       <c r="B733" s="8" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="C733" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D733" s="27"/>
       <c r="E733" s="113" t="str">
@@ -24457,10 +24461,10 @@
     <row r="734" spans="1:12" outlineLevel="1">
       <c r="A734" s="54"/>
       <c r="B734" s="8" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C734" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D734" s="27"/>
       <c r="E734" s="113" t="str">
@@ -24487,10 +24491,10 @@
     <row r="735" spans="1:12" outlineLevel="1">
       <c r="A735" s="54"/>
       <c r="B735" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C735" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D735" s="27"/>
       <c r="E735" s="113" t="str">
@@ -24517,10 +24521,10 @@
     <row r="736" spans="1:12" outlineLevel="1">
       <c r="A736" s="54"/>
       <c r="B736" s="8" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C736" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D736" s="27"/>
       <c r="E736" s="113" t="str">
@@ -24547,10 +24551,10 @@
     <row r="737" spans="1:12" outlineLevel="1">
       <c r="A737" s="54"/>
       <c r="B737" s="8" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C737" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D737" s="27"/>
       <c r="E737" s="113" t="str">
@@ -24577,10 +24581,10 @@
     <row r="738" spans="1:12" outlineLevel="1">
       <c r="A738" s="54"/>
       <c r="B738" s="8" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="C738" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D738" s="27"/>
       <c r="E738" s="113" t="str">
@@ -24607,10 +24611,10 @@
     <row r="739" spans="1:12" outlineLevel="1">
       <c r="A739" s="54"/>
       <c r="B739" s="8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C739" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D739" s="27"/>
       <c r="E739" s="113" t="str">
@@ -24637,10 +24641,10 @@
     <row r="740" spans="1:12" outlineLevel="1">
       <c r="A740" s="54"/>
       <c r="B740" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C740" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D740" s="27"/>
       <c r="E740" s="113" t="str">
@@ -24667,10 +24671,10 @@
     <row r="741" spans="1:12" outlineLevel="1">
       <c r="A741" s="54"/>
       <c r="B741" s="8" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C741" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D741" s="27"/>
       <c r="E741" s="113" t="str">
@@ -24697,10 +24701,10 @@
     <row r="742" spans="1:12" outlineLevel="1">
       <c r="A742" s="54"/>
       <c r="B742" s="8" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C742" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D742" s="27"/>
       <c r="E742" s="113" t="str">
@@ -24727,10 +24731,10 @@
     <row r="743" spans="1:12" outlineLevel="1">
       <c r="A743" s="54"/>
       <c r="B743" s="8" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="C743" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D743" s="27"/>
       <c r="E743" s="113" t="str">
@@ -24757,10 +24761,10 @@
     <row r="744" spans="1:12" outlineLevel="1">
       <c r="A744" s="54"/>
       <c r="B744" s="8" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C744" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D744" s="27"/>
       <c r="E744" s="113" t="str">
@@ -24787,10 +24791,10 @@
     <row r="745" spans="1:12" outlineLevel="1">
       <c r="A745" s="54"/>
       <c r="B745" s="8" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="C745" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D745" s="27"/>
       <c r="E745" s="113" t="str">
@@ -24817,10 +24821,10 @@
     <row r="746" spans="1:12" outlineLevel="1">
       <c r="A746" s="54"/>
       <c r="B746" s="8" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C746" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D746" s="27"/>
       <c r="E746" s="113" t="str">
@@ -24847,10 +24851,10 @@
     <row r="747" spans="1:12" outlineLevel="1">
       <c r="A747" s="54"/>
       <c r="B747" s="8" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C747" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D747" s="27"/>
       <c r="E747" s="113" t="str">
@@ -24877,10 +24881,10 @@
     <row r="748" spans="1:12" outlineLevel="1">
       <c r="A748" s="54"/>
       <c r="B748" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C748" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D748" s="27"/>
       <c r="E748" s="113" t="str">
@@ -24907,10 +24911,10 @@
     <row r="749" spans="1:12" outlineLevel="1">
       <c r="A749" s="54"/>
       <c r="B749" s="8" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C749" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D749" s="27"/>
       <c r="E749" s="113" t="str">
@@ -24937,10 +24941,10 @@
     <row r="750" spans="1:12" outlineLevel="1">
       <c r="A750" s="54"/>
       <c r="B750" s="8" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C750" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D750" s="27"/>
       <c r="E750" s="113" t="str">
@@ -24992,10 +24996,10 @@
     </row>
     <row r="752" spans="1:12">
       <c r="A752" s="54" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B752" s="76" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C752" s="46"/>
       <c r="D752" s="27"/>
@@ -25049,10 +25053,10 @@
     <row r="754" spans="1:12" outlineLevel="1">
       <c r="A754" s="54"/>
       <c r="B754" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C754" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D754" s="27"/>
       <c r="E754" s="113" t="str">
@@ -25079,10 +25083,10 @@
     <row r="755" spans="1:12" outlineLevel="1">
       <c r="A755" s="54"/>
       <c r="B755" s="8" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C755" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D755" s="27"/>
       <c r="E755" s="113" t="str">
@@ -25109,10 +25113,10 @@
     <row r="756" spans="1:12" outlineLevel="1">
       <c r="A756" s="54"/>
       <c r="B756" s="8" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C756" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D756" s="27"/>
       <c r="E756" s="113" t="str">
@@ -25139,10 +25143,10 @@
     <row r="757" spans="1:12" outlineLevel="1">
       <c r="A757" s="54"/>
       <c r="B757" s="8" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C757" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D757" s="27"/>
       <c r="E757" s="113" t="str">
@@ -25169,10 +25173,10 @@
     <row r="758" spans="1:12" outlineLevel="1">
       <c r="A758" s="54"/>
       <c r="B758" s="8" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C758" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D758" s="27"/>
       <c r="E758" s="113" t="str">
@@ -25199,10 +25203,10 @@
     <row r="759" spans="1:12" outlineLevel="1">
       <c r="A759" s="54"/>
       <c r="B759" s="8" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C759" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D759" s="27"/>
       <c r="E759" s="113" t="str">
@@ -25229,10 +25233,10 @@
     <row r="760" spans="1:12" outlineLevel="1">
       <c r="A760" s="54"/>
       <c r="B760" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C760" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D760" s="27"/>
       <c r="E760" s="113" t="str">
@@ -25259,10 +25263,10 @@
     <row r="761" spans="1:12" outlineLevel="1">
       <c r="A761" s="54"/>
       <c r="B761" s="8" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C761" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D761" s="27"/>
       <c r="E761" s="113" t="str">
@@ -25289,10 +25293,10 @@
     <row r="762" spans="1:12" ht="31" outlineLevel="1">
       <c r="A762" s="54"/>
       <c r="B762" s="8" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C762" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D762" s="27"/>
       <c r="E762" s="113" t="str">
@@ -25319,10 +25323,10 @@
     <row r="763" spans="1:12" outlineLevel="1">
       <c r="A763" s="54"/>
       <c r="B763" s="8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C763" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D763" s="27"/>
       <c r="E763" s="113" t="str">
@@ -25374,10 +25378,10 @@
     </row>
     <row r="765" spans="1:12">
       <c r="A765" s="54" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B765" s="76" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C765" s="46"/>
       <c r="D765" s="27"/>
@@ -25431,10 +25435,10 @@
     <row r="767" spans="1:12" outlineLevel="1">
       <c r="A767" s="54"/>
       <c r="B767" s="8" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C767" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D767" s="27"/>
       <c r="E767" s="113" t="str">
@@ -25461,10 +25465,10 @@
     <row r="768" spans="1:12" outlineLevel="1">
       <c r="A768" s="54"/>
       <c r="B768" s="8" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C768" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D768" s="27"/>
       <c r="E768" s="113" t="str">
@@ -25491,10 +25495,10 @@
     <row r="769" spans="1:12" outlineLevel="1">
       <c r="A769" s="54"/>
       <c r="B769" s="8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C769" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D769" s="27"/>
       <c r="E769" s="113" t="str">
@@ -25521,10 +25525,10 @@
     <row r="770" spans="1:12" outlineLevel="1">
       <c r="A770" s="54"/>
       <c r="B770" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C770" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D770" s="27"/>
       <c r="E770" s="113" t="str">
@@ -25576,10 +25580,10 @@
     </row>
     <row r="772" spans="1:12">
       <c r="A772" s="54" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B772" s="76" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C772" s="26"/>
       <c r="D772" s="27"/>
@@ -25633,10 +25637,10 @@
     <row r="774" spans="1:12" outlineLevel="1">
       <c r="A774" s="54"/>
       <c r="B774" s="8" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C774" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D774" s="27"/>
       <c r="E774" s="113" t="str">
@@ -25663,10 +25667,10 @@
     <row r="775" spans="1:12" outlineLevel="1">
       <c r="A775" s="54"/>
       <c r="B775" s="8" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C775" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D775" s="27"/>
       <c r="E775" s="113" t="str">
@@ -25693,10 +25697,10 @@
     <row r="776" spans="1:12" outlineLevel="1">
       <c r="A776" s="54"/>
       <c r="B776" s="8" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C776" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D776" s="27"/>
       <c r="E776" s="113" t="str">
@@ -25723,10 +25727,10 @@
     <row r="777" spans="1:12" outlineLevel="1">
       <c r="A777" s="54"/>
       <c r="B777" s="8" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C777" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D777" s="27"/>
       <c r="E777" s="113" t="str">
@@ -25753,10 +25757,10 @@
     <row r="778" spans="1:12" outlineLevel="1">
       <c r="A778" s="54"/>
       <c r="B778" s="8" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C778" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D778" s="27"/>
       <c r="E778" s="113" t="str">
@@ -25783,10 +25787,10 @@
     <row r="779" spans="1:12" outlineLevel="1">
       <c r="A779" s="54"/>
       <c r="B779" s="8" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C779" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D779" s="27"/>
       <c r="E779" s="113" t="str">
@@ -25813,10 +25817,10 @@
     <row r="780" spans="1:12" outlineLevel="1">
       <c r="A780" s="54"/>
       <c r="B780" s="8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C780" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D780" s="27"/>
       <c r="E780" s="113" t="str">
@@ -25843,10 +25847,10 @@
     <row r="781" spans="1:12" outlineLevel="1">
       <c r="A781" s="54"/>
       <c r="B781" s="8" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C781" s="26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D781" s="27"/>
       <c r="E781" s="113" t="str">
@@ -25873,10 +25877,10 @@
     <row r="782" spans="1:12" outlineLevel="1">
       <c r="A782" s="54"/>
       <c r="B782" s="8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C782" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D782" s="27"/>
       <c r="E782" s="113" t="str">
@@ -25903,10 +25907,10 @@
     <row r="783" spans="1:12" outlineLevel="1">
       <c r="A783" s="54"/>
       <c r="B783" s="8" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C783" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D783" s="27"/>
       <c r="E783" s="113" t="str">
@@ -25933,10 +25937,10 @@
     <row r="784" spans="1:12" outlineLevel="1">
       <c r="A784" s="54"/>
       <c r="B784" s="8" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C784" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D784" s="27"/>
       <c r="E784" s="113" t="str">
@@ -25963,10 +25967,10 @@
     <row r="785" spans="1:12" outlineLevel="1">
       <c r="A785" s="54"/>
       <c r="B785" s="8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C785" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D785" s="27"/>
       <c r="E785" s="113" t="str">
@@ -25993,10 +25997,10 @@
     <row r="786" spans="1:12" outlineLevel="1">
       <c r="A786" s="54"/>
       <c r="B786" s="8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C786" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D786" s="27"/>
       <c r="E786" s="113" t="str">
@@ -26039,7 +26043,7 @@
         <v>6</v>
       </c>
       <c r="B788" s="59" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C788" s="68"/>
       <c r="D788" s="69"/>
@@ -26068,10 +26072,10 @@
     </row>
     <row r="790" spans="1:12">
       <c r="A790" s="54" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B790" s="76" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="C790" s="26"/>
       <c r="D790" s="27"/>
@@ -26125,10 +26129,10 @@
     <row r="792" spans="1:12" outlineLevel="1">
       <c r="A792" s="54"/>
       <c r="B792" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C792" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D792" s="27"/>
       <c r="E792" s="113" t="str">
@@ -26155,10 +26159,10 @@
     <row r="793" spans="1:12" outlineLevel="1">
       <c r="A793" s="54"/>
       <c r="B793" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C793" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D793" s="27"/>
       <c r="E793" s="113" t="str">
@@ -26185,10 +26189,10 @@
     <row r="794" spans="1:12" outlineLevel="1">
       <c r="A794" s="54"/>
       <c r="B794" s="8" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C794" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D794" s="27"/>
       <c r="E794" s="113" t="str">
@@ -26215,10 +26219,10 @@
     <row r="795" spans="1:12" outlineLevel="1">
       <c r="A795" s="54"/>
       <c r="B795" s="8" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="C795" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D795" s="27"/>
       <c r="E795" s="113" t="str">
@@ -26245,10 +26249,10 @@
     <row r="796" spans="1:12" outlineLevel="1">
       <c r="A796" s="54"/>
       <c r="B796" s="8" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C796" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D796" s="27"/>
       <c r="E796" s="113" t="str">
@@ -26275,10 +26279,10 @@
     <row r="797" spans="1:12" outlineLevel="1">
       <c r="A797" s="54"/>
       <c r="B797" s="8" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C797" s="26" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D797" s="27"/>
       <c r="E797" s="113" t="str">
@@ -26305,10 +26309,10 @@
     <row r="798" spans="1:12" outlineLevel="1">
       <c r="A798" s="54"/>
       <c r="B798" s="22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C798" s="46" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D798" s="27"/>
       <c r="E798" s="113" t="str">
@@ -26335,10 +26339,10 @@
     <row r="799" spans="1:12" outlineLevel="1">
       <c r="A799" s="54"/>
       <c r="B799" s="8" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C799" s="26" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D799" s="27"/>
       <c r="E799" s="113" t="str">
@@ -26379,7 +26383,7 @@
     <row r="801" spans="1:10" s="7" customFormat="1" ht="37.5" customHeight="1" thickBot="1">
       <c r="A801" s="81"/>
       <c r="B801" s="120" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C801" s="120"/>
       <c r="D801" s="121"/>
@@ -26391,7 +26395,7 @@
     <row r="802" spans="1:10" s="6" customFormat="1" ht="16" thickBot="1">
       <c r="A802" s="86"/>
       <c r="B802" s="30" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C802" s="28"/>
       <c r="D802" s="28"/>
@@ -26404,7 +26408,7 @@
     <row r="803" spans="1:10" ht="37.5" customHeight="1" thickBot="1">
       <c r="A803" s="87"/>
       <c r="B803" s="122" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C803" s="122"/>
       <c r="D803" s="123"/>
@@ -26425,6 +26429,7 @@
       <c r="J808" s="5"/>
     </row>
   </sheetData>
+  <autoFilter ref="A12:L804"/>
   <mergeCells count="4">
     <mergeCell ref="A13:H13"/>
     <mergeCell ref="A14:H14"/>
